--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DAD267-D2F4-BB42-8DD1-572CF775413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A65218-FCC1-2149-A836-44B7412283F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="20140" firstSheet="6" activeTab="14" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="20140" firstSheet="15" activeTab="18" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -87,46 +87,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Skew!#REF!</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Histograms!$B$5</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Histograms!$B$6:$B$58</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Variance &amp; Std Dev'!$D$6:$D$100</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Frequency Distributions'!$D$18:$D$21</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Variability!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Variability!$C$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Variability!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Variability!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Variability!$C$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Variability!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Variability!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Variability!$C$5</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Variability!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Variability!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Frequency Distributions'!$D$18:$D$25</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Variability!$C$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Variability!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Variability!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Variability!$C$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Variability!$C$6:$C$100</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Frequency Distributions'!$E$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Frequency Distributions'!$E$18:$E$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Frequency Distributions'!$E$18:$E$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Variability!$C$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Variability!$C$6:$C$100</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Normal Distributions'!$B$6:$B$58</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Normal Distributions'!$B$6:$B$58</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Frequency Distributions'!$D$18:$D$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Frequency Distributions'!$E$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Frequency Distributions'!$E$18:$E$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Variability!$B$6:$B$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId61"/>
-    <pivotCache cacheId="12" r:id="rId62"/>
-    <pivotCache cacheId="13" r:id="rId63"/>
-    <pivotCache cacheId="19" r:id="rId64"/>
+    <pivotCache cacheId="0" r:id="rId61"/>
+    <pivotCache cacheId="1" r:id="rId62"/>
+    <pivotCache cacheId="2" r:id="rId63"/>
+    <pivotCache cacheId="3" r:id="rId64"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -148,7 +127,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -557,9 +536,6 @@
   </si>
   <si>
     <t>Most students get grades in which intervals?</t>
-  </si>
-  <si>
-    <t>Do our graduates' annual salaries follow a normal distribution?</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1363,6 +1339,9 @@
   <si>
     <t># of Students</t>
   </si>
+  <si>
+    <t>Do our graduates' annual salaries follow a normal distribution? NO</t>
+  </si>
 </sst>
 </file>
 
@@ -1758,7 +1737,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2005,6 +1984,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,20 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2057,7 +2035,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2066,10 +2047,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -10233,10 +10211,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10274,7 +10252,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C40DAA94-3FDA-1246-A48D-0A0F1CEE9987}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v># of Students</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10394,12 +10372,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10409,7 +10387,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A44A27E-7FE1-7249-B71C-132E79C2482E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Employability (Before)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10430,7 +10408,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1ED8A682-20B2-1C41-AFA0-3105FCA980F2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Employability (After)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10496,10 +10474,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10509,7 +10487,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{694EBC66-9150-FE4B-8243-30065FAB87F7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>MBA Grade</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10629,6 +10607,42 @@
             </a:endParaRPr>
           </a:p>
         </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C749FDBF-0FC4-4549-B2C5-E5A7A4486B0D}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="15000"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -10796,6 +10810,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13207,6 +13261,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16272,7 +16842,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16283,7 +16853,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -16299,14 +16869,14 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -16329,7 +16899,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -16337,11 +16907,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -16366,42 +16936,52 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16410,10 +16990,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -16421,9 +16999,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -16436,10 +17017,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16458,41 +17039,38 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -16541,12 +17119,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -16578,8 +17150,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16597,8 +17169,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16634,7 +17206,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -16662,7 +17234,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -16672,12 +17255,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -16693,7 +17273,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -16709,7 +17289,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -16723,27 +17303,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -16757,18 +17336,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -16777,12 +17345,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -17942,6 +18504,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465297</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEC8354-FF3F-0A76-A713-C72293ED32BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="2914650"/>
+          <a:ext cx="1103472" cy="847417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>529273</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325E621A-C0FA-359A-2F66-E38F2E376A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="2514600"/>
+          <a:ext cx="5139373" cy="1457070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -18031,7 +18686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18124,7 +18779,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18173,7 +18828,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18222,7 +18877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18271,7 +18926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18320,7 +18975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18369,7 +19024,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18418,7 +19073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18511,47 +19166,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB824E3-3116-9D16-5F04-BDBBDA497D35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -18639,6 +19253,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB824E3-3116-9D16-5F04-BDBBDA497D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -18678,7 +19333,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18721,7 +19376,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18808,7 +19463,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18851,7 +19506,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19026,7 +19681,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19327,6 +19982,89 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E703835-E332-11DD-1BE6-6E14D0AEC04E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1695450" y="2806700"/>
+              <a:ext cx="9493250" cy="3937000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -19374,7 +20112,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19412,99 +20150,6 @@
         <a:xfrm>
           <a:off x="4152900" y="2667000"/>
           <a:ext cx="2554445" cy="530398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>465297</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161617</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEC8354-FF3F-0A76-A713-C72293ED32BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2152650" y="2914650"/>
-          <a:ext cx="1103472" cy="847417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>529273</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325E621A-C0FA-359A-2F66-E38F2E376A77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4457700" y="2514600"/>
-          <a:ext cx="5139373" cy="1457070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20876,7 +21521,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AEBD41D-0FFC-BF4E-84EC-2832D3D0124E}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7AEBD41D-0FFC-BF4E-84EC-2832D3D0124E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Status">
   <location ref="D5:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -20929,7 +21574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64196B95-FB86-104F-AC43-2E81172FA6AC}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Annual Salary">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64196B95-FB86-104F-AC43-2E81172FA6AC}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Annual Salary">
   <location ref="D5:F15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -21052,7 +21697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A0D4EE9-0520-AE44-9F3D-A92140887FAE}" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Grades">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A0D4EE9-0520-AE44-9F3D-A92140887FAE}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Grades">
   <location ref="D5:F14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -21125,7 +21770,7 @@
     </dataField>
   </dataFields>
   <formats count="6">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21134,7 +21779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="3">
@@ -21147,10 +21792,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -21183,7 +21828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{855F96FC-062E-444E-BB8F-5DC1DC439AE3}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{855F96FC-062E-444E-BB8F-5DC1DC439AE3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="D5:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" showAll="0">
@@ -24513,11 +25158,11 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -25352,7 +25997,7 @@
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25371,16 +26016,16 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="I5" s="110" t="s">
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="I5" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -27114,7 +27759,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27136,12 +27781,12 @@
         <v>23</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="G5" s="109"/>
+        <v>242</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -28357,11 +29002,11 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -29187,7 +29832,7 @@
   </sheetPr>
   <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -29207,7 +29852,7 @@
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29223,11 +29868,11 @@
       <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -29299,7 +29944,7 @@
         <f t="array" ref="G9">_xlfn.QUARTILE.INC(IF($B$6:$B$100=G6,$C$6:$C$100),3)-_xlfn.QUARTILE.INC(IF($B$6:$B$100=G6,$C$6:$C$100),1)</f>
         <v>8.3999999999999773</v>
       </c>
-      <c r="J9" s="118"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -30057,7 +30702,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30102,14 +30747,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="109"/>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -30124,11 +30769,17 @@
       <c r="G6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="75">
+        <f>AVERAGE(B6:B100)</f>
+        <v>80.169473684210516</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="75"/>
+      <c r="K6" s="75">
+        <f>H6</f>
+        <v>80.169473684210516</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -30143,11 +30794,17 @@
       <c r="G7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="75">
+        <f>MEDIAN(B6:B100)</f>
+        <v>80.2</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="75">
+        <f>_xlfn.STDEV.S(B6:B100)</f>
+        <v>6.1707800411122609</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -30674,7 +31331,7 @@
   <dimension ref="B1:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30689,7 +31346,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30713,14 +31370,14 @@
       <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="109"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -30740,7 +31397,7 @@
         <v>88</v>
       </c>
       <c r="I6" s="17">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -30760,7 +31417,10 @@
       <c r="H7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="71"/>
+      <c r="I7" s="71">
+        <f>_xlfn.XLOOKUP(I6,B6:B100,C6:C100,,)</f>
+        <v>79.099999999999994</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -30772,7 +31432,10 @@
       <c r="H8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="75">
+        <f>(I7-F6)/F7</f>
+        <v>-0.1733125596902256</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -31534,7 +32197,7 @@
   <dimension ref="B1:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31569,16 +32232,16 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -31618,9 +32281,18 @@
       <c r="G7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="H7" s="72">
+        <f>$E$6-H6*$E$7</f>
+        <v>73.99869364309825</v>
+      </c>
+      <c r="I7" s="72">
+        <f t="shared" ref="I7:J7" si="0">$E$6-I6*$E$7</f>
+        <v>67.827913601985998</v>
+      </c>
+      <c r="J7" s="72">
+        <f t="shared" si="0"/>
+        <v>61.657133560873731</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -31629,9 +32301,18 @@
       <c r="G8" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="H8" s="72">
+        <f>$E$6+H6*$E$7</f>
+        <v>86.340253725322782</v>
+      </c>
+      <c r="I8" s="72">
+        <f t="shared" ref="I8:J8" si="1">$E$6+I6*$E$7</f>
+        <v>92.511033766435034</v>
+      </c>
+      <c r="J8" s="72">
+        <f t="shared" si="1"/>
+        <v>98.6818138075473</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -31657,9 +32338,18 @@
       <c r="G10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
+      <c r="H10" s="79">
+        <f>COUNTIFS($B$6:$B$100,"&gt;="&amp;H7,$B$6:$B$100,"&lt;="&amp;H8)/COUNT($B$6:$B$100)</f>
+        <v>0.69473684210526321</v>
+      </c>
+      <c r="I10" s="79">
+        <f t="shared" ref="I10:J10" si="2">COUNTIFS($B$6:$B$100,"&gt;="&amp;I7,$B$6:$B$100,"&lt;="&amp;I8)/COUNT($B$6:$B$100)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="J10" s="79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -32127,8 +32817,8 @@
   </sheetPr>
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32142,12 +32832,12 @@
   <sheetData>
     <row r="1" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32166,20 +32856,20 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -32188,11 +32878,17 @@
       <c r="D6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="80">
+        <f>AVERAGE(B6:B58)</f>
+        <v>119386.7924528302</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="80"/>
+      <c r="H6" s="80">
+        <f>E6</f>
+        <v>119386.7924528302</v>
+      </c>
       <c r="J6" s="27" t="s">
         <v>91</v>
       </c>
@@ -32213,17 +32909,32 @@
       <c r="D7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="80">
+        <f>MEDIAN(B6:B58)</f>
+        <v>104500</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="80">
+        <f>_xlfn.STDEV.S(B6:B58)</f>
+        <v>45546.958176470725</v>
+      </c>
       <c r="J7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="K7" s="80">
+        <f>$H$6-K6*$H$7</f>
+        <v>73839.83427635947</v>
+      </c>
+      <c r="L7" s="80">
+        <f t="shared" ref="L7:M7" si="0">$H$6-L6*$H$7</f>
+        <v>28292.876099888745</v>
+      </c>
+      <c r="M7" s="80">
+        <f t="shared" si="0"/>
+        <v>-17254.082076581995</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
@@ -32232,9 +32943,18 @@
       <c r="J8" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="K8" s="80">
+        <f>$H$6+K6*$H$7</f>
+        <v>164933.75062930092</v>
+      </c>
+      <c r="L8" s="80">
+        <f t="shared" ref="L8:M8" si="1">$H$6+L6*$H$7</f>
+        <v>210480.70880577166</v>
+      </c>
+      <c r="M8" s="80">
+        <f t="shared" si="1"/>
+        <v>256027.66698224237</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
@@ -32260,9 +32980,18 @@
       <c r="J10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
+      <c r="K10" s="79">
+        <f>COUNTIFS($B$6:$B$58,"&gt;="&amp;K7,$B$6:$B$58,"&lt;="&amp;K8)/COUNT($B$6:$B$58)</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L10" s="79">
+        <f t="shared" ref="L10:M10" si="2">COUNTIFS($B$6:$B$58,"&gt;="&amp;L7,$B$6:$B$58,"&lt;="&amp;L8)/COUNT($B$6:$B$58)</f>
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="M10" s="79">
+        <f t="shared" si="2"/>
+        <v>0.98113207547169812</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
@@ -32511,6 +33240,7 @@
     <mergeCell ref="J5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32546,26 +33276,26 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="H2" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="106"/>
-      <c r="K2" s="107" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="107"/>
-      <c r="N2" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="O2" s="108"/>
+      <c r="F2" s="110"/>
+      <c r="H2" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="111"/>
+      <c r="K2" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="112"/>
+      <c r="N2" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -32613,19 +33343,19 @@
         <v>11</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O4" s="55" t="s">
         <v>11</v>
@@ -32645,19 +33375,19 @@
         <v>11</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O5" s="55" t="s">
         <v>11</v>
@@ -32677,19 +33407,19 @@
         <v>11</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O6" s="57" t="s">
         <v>11</v>
@@ -32709,19 +33439,19 @@
         <v>11</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L7" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O7" s="55" t="s">
         <v>11</v>
@@ -32741,19 +33471,19 @@
         <v>11</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O8" s="55" t="s">
         <v>11</v>
@@ -32773,19 +33503,19 @@
         <v>11</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="46" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O9" s="57" t="s">
         <v>11</v>
@@ -32805,19 +33535,19 @@
         <v>11</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L10" s="48" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O10" s="55" t="s">
         <v>11</v>
@@ -32837,19 +33567,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11" s="46" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O11" s="55" t="s">
         <v>11</v>
@@ -32869,19 +33599,19 @@
         <v>11</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O12" s="55" t="s">
         <v>11</v>
@@ -32901,19 +33631,19 @@
         <v>11</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L13" s="46" t="s">
         <v>11</v>
       </c>
       <c r="N13" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O13" s="55" t="s">
         <v>11</v>
@@ -32933,13 +33663,13 @@
         <v>11</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O14" s="57" t="s">
         <v>11</v>
@@ -32953,7 +33683,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O15" s="55" t="s">
         <v>11</v>
@@ -32967,7 +33697,7 @@
         <v>11</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O16" s="55" t="s">
         <v>11</v>
@@ -33068,15 +33798,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33092,14 +33822,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>294</v>
-      </c>
-      <c r="H5" s="109"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -33129,7 +33859,7 @@
         <v>6.1707800411122609</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H7" s="81"/>
     </row>
@@ -33633,12 +34363,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33651,10 +34381,10 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -33679,7 +34409,7 @@
         <v>68.7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="81"/>
     </row>
@@ -34175,12 +34905,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34196,14 +34926,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>294</v>
-      </c>
-      <c r="H5" s="109"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -34736,12 +35466,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34757,10 +35487,10 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="114"/>
       <c r="G5" s="10" t="s">
         <v>99</v>
       </c>
@@ -35395,12 +36125,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35416,14 +36146,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="109"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -35965,12 +36695,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35986,14 +36716,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" s="109"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -36531,12 +37261,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36552,14 +37282,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="109"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -37097,12 +37827,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37121,18 +37851,18 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -37143,11 +37873,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="75"/>
     </row>
@@ -37160,11 +37890,11 @@
       </c>
       <c r="E7" s="72"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="75"/>
     </row>
@@ -37173,7 +37903,7 @@
         <v>119</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="85"/>
     </row>
@@ -37181,12 +37911,12 @@
       <c r="B9" s="8">
         <v>334</v>
       </c>
-      <c r="D9" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="109"/>
+      <c r="D9" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="114"/>
       <c r="G9" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="86"/>
     </row>
@@ -37201,7 +37931,7 @@
         <v>90</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="75"/>
     </row>
@@ -37212,7 +37942,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="1"/>
       <c r="G11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="75"/>
     </row>
@@ -37699,12 +38429,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37723,18 +38453,18 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -37745,11 +38475,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="80"/>
     </row>
@@ -37762,11 +38492,11 @@
       </c>
       <c r="E7" s="80"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="80"/>
     </row>
@@ -37777,7 +38507,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="28"/>
       <c r="G8" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="80"/>
     </row>
@@ -37785,10 +38515,10 @@
       <c r="B9" s="12">
         <v>148000</v>
       </c>
-      <c r="D9" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="109"/>
+      <c r="D9" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="114"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
@@ -38085,12 +38815,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38109,18 +38839,18 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -38131,11 +38861,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="75"/>
     </row>
@@ -38148,11 +38878,11 @@
       </c>
       <c r="E7" s="72"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="75"/>
     </row>
@@ -38165,7 +38895,7 @@
       </c>
       <c r="E8" s="75"/>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="85"/>
     </row>
@@ -38174,7 +38904,7 @@
         <v>334</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="86"/>
     </row>
@@ -38183,7 +38913,7 @@
         <v>252</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="75"/>
     </row>
@@ -38192,7 +38922,7 @@
         <v>209</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="75"/>
     </row>
@@ -38682,7 +39412,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="16" x14ac:dyDescent="0.2">
@@ -39298,12 +40028,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39322,18 +40052,18 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -39344,11 +40074,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="80"/>
     </row>
@@ -39361,11 +40091,11 @@
       </c>
       <c r="E7" s="80"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="80"/>
     </row>
@@ -39378,7 +40108,7 @@
       </c>
       <c r="E8" s="80"/>
       <c r="G8" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="80"/>
     </row>
@@ -39670,12 +40400,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39694,18 +40424,18 @@
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -39716,11 +40446,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="82"/>
     </row>
@@ -39729,15 +40459,15 @@
         <v>25</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="87"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="82"/>
     </row>
@@ -39746,11 +40476,11 @@
         <v>27</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="87"/>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="85"/>
     </row>
@@ -39759,7 +40489,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="86"/>
     </row>
@@ -39767,12 +40497,12 @@
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="109"/>
+      <c r="D10" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="114"/>
       <c r="G10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="81"/>
     </row>
@@ -39781,11 +40511,11 @@
         <v>25</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="71"/>
       <c r="G11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="87"/>
     </row>
@@ -39794,7 +40524,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="71"/>
     </row>
@@ -40276,12 +41006,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40300,18 +41030,18 @@
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="109"/>
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -40322,11 +41052,11 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="82"/>
       <c r="J6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="82"/>
     </row>
@@ -40335,15 +41065,15 @@
         <v>14</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="87"/>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="82"/>
       <c r="J7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="82"/>
     </row>
@@ -40352,11 +41082,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="87"/>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="85"/>
     </row>
@@ -40365,7 +41095,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="86"/>
     </row>
@@ -40373,12 +41103,12 @@
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="109"/>
+      <c r="D10" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="114"/>
       <c r="G10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="87"/>
     </row>
@@ -40387,11 +41117,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="71"/>
       <c r="G11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="87"/>
     </row>
@@ -40400,7 +41130,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="71"/>
     </row>
@@ -40886,12 +41616,12 @@
   <sheetData>
     <row r="1" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40917,20 +41647,20 @@
         <v>77</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="109"/>
-      <c r="M5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="109"/>
+        <v>171</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="M5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -40948,11 +41678,11 @@
       </c>
       <c r="H6" s="71"/>
       <c r="J6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="82"/>
       <c r="M6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" s="75"/>
     </row>
@@ -40972,11 +41702,11 @@
       </c>
       <c r="H7" s="72"/>
       <c r="J7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="82"/>
       <c r="M7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="75"/>
     </row>
@@ -40996,7 +41726,7 @@
       </c>
       <c r="H8" s="75"/>
       <c r="J8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="85"/>
     </row>
@@ -41012,7 +41742,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="J9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="86"/>
     </row>
@@ -41028,7 +41758,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="J10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K10" s="75"/>
     </row>
@@ -41044,7 +41774,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="J11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="75"/>
     </row>
@@ -42155,12 +42885,12 @@
   <sheetData>
     <row r="1" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42186,20 +42916,20 @@
         <v>23</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="109"/>
-      <c r="M5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="109"/>
+        <v>171</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="M5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -42217,11 +42947,11 @@
       </c>
       <c r="H6" s="71"/>
       <c r="J6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="82"/>
       <c r="M6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" s="72"/>
     </row>
@@ -42241,11 +42971,11 @@
       </c>
       <c r="H7" s="72"/>
       <c r="J7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="82"/>
       <c r="M7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="72"/>
     </row>
@@ -42265,7 +42995,7 @@
       </c>
       <c r="H8" s="75"/>
       <c r="J8" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" s="75"/>
     </row>
@@ -43413,12 +44143,12 @@
   <sheetData>
     <row r="1" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43443,23 +44173,23 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="J5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="109"/>
-      <c r="M5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="109"/>
-      <c r="P5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" s="109"/>
+      <c r="F5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="M5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="114"/>
+      <c r="P5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="114"/>
     </row>
     <row r="6" spans="2:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -43475,15 +44205,15 @@
         <v>26</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K6" s="72"/>
       <c r="M6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" s="77"/>
       <c r="P6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="72"/>
     </row>
@@ -43495,16 +44225,16 @@
         <v>80.7</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
       <c r="M7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="82"/>
       <c r="P7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="72"/>
     </row>
@@ -43516,12 +44246,12 @@
         <v>74.900000000000006</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
       <c r="M8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N8" s="71"/>
     </row>
@@ -43533,12 +44263,12 @@
         <v>80.7</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
       <c r="M9" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" s="75"/>
     </row>
@@ -43550,12 +44280,12 @@
         <v>83.3</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
       <c r="M10" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N10" s="70"/>
     </row>
@@ -43567,12 +44297,12 @@
         <v>75.400000000000006</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
       <c r="M11" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N11" s="75"/>
     </row>
@@ -43584,7 +44314,7 @@
         <v>82.1</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" s="75"/>
     </row>
@@ -43974,12 +44704,12 @@
   <sheetData>
     <row r="1" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44004,23 +44734,23 @@
       <c r="C5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="I5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="109"/>
-      <c r="L5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="E5" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="114"/>
+      <c r="L5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -44036,15 +44766,15 @@
         <v>14</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J6" s="73"/>
       <c r="L6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" s="77"/>
       <c r="O6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P6" s="73"/>
     </row>
@@ -44056,16 +44786,16 @@
         <v>410</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="L7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="82"/>
       <c r="O7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" s="73"/>
     </row>
@@ -44077,12 +44807,12 @@
         <v>119</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
       <c r="L8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="71"/>
     </row>
@@ -44094,12 +44824,12 @@
         <v>334</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="L9" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M9" s="75"/>
     </row>
@@ -44111,12 +44841,12 @@
         <v>252</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="L10" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M10" s="70"/>
     </row>
@@ -44128,12 +44858,12 @@
         <v>209</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
       <c r="L11" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M11" s="75"/>
     </row>
@@ -44145,7 +44875,7 @@
         <v>462</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M12" s="75"/>
     </row>
@@ -44892,12 +45622,12 @@
   <sheetData>
     <row r="1" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44922,23 +45652,23 @@
       <c r="C5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="I5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="109"/>
-      <c r="L5" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="E5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="I5" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="114"/>
+      <c r="L5" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -44954,15 +45684,15 @@
         <v>25</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6" s="70"/>
       <c r="L6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" s="77"/>
       <c r="O6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P6" s="88"/>
     </row>
@@ -44974,16 +45704,16 @@
         <v>14</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="L7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="82"/>
       <c r="O7" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" s="88"/>
     </row>
@@ -44995,12 +45725,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="L8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="71"/>
     </row>
@@ -45012,12 +45742,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="L9" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="70"/>
     </row>
@@ -45032,7 +45762,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="L10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M10" s="70"/>
     </row>
@@ -45043,13 +45773,13 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
+      <c r="E11" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
       <c r="L11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M11" s="70"/>
     </row>
@@ -45061,7 +45791,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
@@ -45074,7 +45804,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -45810,12 +46540,12 @@
   <sheetData>
     <row r="1" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45826,19 +46556,19 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>276</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -45849,7 +46579,7 @@
         <v>410</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="89"/>
       <c r="F7" s="89"/>
@@ -46368,12 +47098,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46384,35 +47114,35 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="111"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>276</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="89" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="90">
         <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="71"/>
     </row>
@@ -46421,13 +47151,13 @@
         <v>410</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>197</v>
-      </c>
       <c r="F7" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="90">
         <v>300</v>
@@ -46978,7 +47708,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H5" s="66" t="s">
         <v>34</v>
@@ -46996,7 +47726,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -47022,7 +47752,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -47047,7 +47777,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -47072,7 +47802,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -47097,7 +47827,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -47122,7 +47852,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -47147,7 +47877,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -47172,7 +47902,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -47197,7 +47927,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -47569,12 +48299,12 @@
   <sheetData>
     <row r="1" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47591,43 +48321,43 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="111"/>
-      <c r="L5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="116"/>
+      <c r="L5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>276</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="89" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="90">
         <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="71">
         <v>0.1</v>
@@ -47637,7 +48367,7 @@
       </c>
       <c r="M6" s="71"/>
       <c r="O6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="75"/>
     </row>
@@ -47646,13 +48376,13 @@
         <v>410</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>197</v>
-      </c>
       <c r="F7" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="90">
         <v>300</v>
@@ -47664,7 +48394,7 @@
       </c>
       <c r="M7" s="72"/>
       <c r="O7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="91"/>
     </row>
@@ -48192,12 +48922,12 @@
   <sheetData>
     <row r="1" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48214,43 +48944,43 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="111"/>
-      <c r="L5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="116"/>
+      <c r="L5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="114"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>276</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="89" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="90">
         <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="71">
         <v>0.1</v>
@@ -48263,7 +48993,7 @@
         <v>95</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="75">
         <f>M8/SQRT(M6)</f>
@@ -48275,13 +49005,13 @@
         <v>410</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>197</v>
-      </c>
       <c r="F7" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="90">
         <v>300</v>
@@ -48296,7 +49026,7 @@
         <v>289.34736842105264</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="91">
         <f>(M7-G6)/P6</f>
@@ -48319,7 +49049,7 @@
         <v>93.521048765238149</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="70"/>
     </row>
@@ -48835,12 +49565,12 @@
   <sheetData>
     <row r="1" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48857,26 +49587,26 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="111"/>
-      <c r="L5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="116"/>
+      <c r="L5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="114"/>
       <c r="R5" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -48884,19 +49614,19 @@
         <v>276</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="89" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="90">
         <v>300</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="71">
         <v>0.1</v>
@@ -48909,26 +49639,26 @@
         <v>95</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="75">
         <f>M8/SQRT(M6)</f>
         <v>9.5950571497434378</v>
       </c>
-      <c r="R6" s="112"/>
+      <c r="R6" s="117"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>410</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>197</v>
-      </c>
       <c r="F7" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="90">
         <v>300</v>
@@ -48943,13 +49673,13 @@
         <v>289.34736842105264</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="91">
         <f>(M7-G6)/P6</f>
         <v>-1.1102207535295614</v>
       </c>
-      <c r="R7" s="112"/>
+      <c r="R7" s="117"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -48967,13 +49697,13 @@
         <v>93.521048765238149</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="70">
         <f>_xlfn.T.DIST(P7,M6-1,TRUE)*2</f>
         <v>0.26973589884432797</v>
       </c>
-      <c r="R8" s="112"/>
+      <c r="R8" s="117"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -48983,7 +49713,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="R9" s="112"/>
+      <c r="R9" s="117"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -48993,7 +49723,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="R10" s="112"/>
+      <c r="R10" s="117"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -49003,7 +49733,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="R11" s="112"/>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -49490,12 +50220,12 @@
   <sheetData>
     <row r="1" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -49512,26 +50242,26 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="111"/>
-      <c r="L5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="O5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="109"/>
+      <c r="D5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="116"/>
+      <c r="L5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="114"/>
+      <c r="O5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="114"/>
       <c r="R5" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -49539,15 +50269,15 @@
         <v>90.2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="90"/>
       <c r="I6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="71"/>
       <c r="L6" s="20" t="s">
@@ -49555,20 +50285,20 @@
       </c>
       <c r="M6" s="71"/>
       <c r="O6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="75"/>
-      <c r="R6" s="112"/>
+      <c r="R6" s="117"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>92.8</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>196</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>197</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="90"/>
@@ -49579,10 +50309,10 @@
       </c>
       <c r="M7" s="72"/>
       <c r="O7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P7" s="91"/>
-      <c r="R7" s="112"/>
+      <c r="R7" s="117"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -49597,10 +50327,10 @@
       </c>
       <c r="M8" s="75"/>
       <c r="O8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="70"/>
-      <c r="R8" s="112"/>
+      <c r="R8" s="117"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -49610,7 +50340,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="R9" s="112"/>
+      <c r="R9" s="117"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -49620,7 +50350,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="R10" s="112"/>
+      <c r="R10" s="117"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -49630,7 +50360,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="R11" s="112"/>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -50130,12 +50860,12 @@
   <sheetData>
     <row r="1" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50155,32 +50885,32 @@
       <c r="C5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="J5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="K5" s="111"/>
-      <c r="M5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="109"/>
-      <c r="P5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="109"/>
+      <c r="E5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="J5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="116"/>
+      <c r="M5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="114"/>
+      <c r="P5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q5" s="114"/>
       <c r="S5" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U5" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="V5" t="s">
         <v>209</v>
-      </c>
-      <c r="V5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
@@ -50191,15 +50921,15 @@
         <v>13</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="90"/>
       <c r="J6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="71"/>
       <c r="M6" s="20" t="s">
@@ -50207,15 +50937,15 @@
       </c>
       <c r="N6" s="71"/>
       <c r="P6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="75"/>
-      <c r="S6" s="112"/>
+      <c r="S6" s="117"/>
       <c r="U6" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="V6" t="s">
         <v>311</v>
-      </c>
-      <c r="V6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
@@ -50226,10 +50956,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="89" t="s">
         <v>196</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>197</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="90"/>
@@ -50240,10 +50970,10 @@
       </c>
       <c r="N7" s="72"/>
       <c r="P7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="91"/>
-      <c r="S7" s="112"/>
+      <c r="S7" s="117"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -50261,10 +50991,10 @@
       </c>
       <c r="N8" s="75"/>
       <c r="P8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="70"/>
-      <c r="S8" s="112"/>
+      <c r="S8" s="117"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -50277,7 +51007,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="S9" s="112"/>
+      <c r="S9" s="117"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -50290,7 +51020,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="S10" s="112"/>
+      <c r="S10" s="117"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -50303,7 +51033,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="S11" s="112"/>
+      <c r="S11" s="117"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -51066,12 +51796,12 @@
   <sheetData>
     <row r="1" spans="2:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51088,32 +51818,32 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="111" t="s">
+      <c r="D5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="G5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="L5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="116"/>
+      <c r="O5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="114"/>
+      <c r="R5" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="U5" t="s">
+        <v>197</v>
+      </c>
+      <c r="V5" s="92" t="s">
         <v>199</v>
-      </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="L5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" s="111"/>
-      <c r="O5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="109"/>
-      <c r="R5" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="U5" t="s">
-        <v>198</v>
-      </c>
-      <c r="V5" s="92" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
@@ -51125,27 +51855,27 @@
       </c>
       <c r="E6" s="71"/>
       <c r="G6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="93"/>
       <c r="L6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="71"/>
       <c r="O6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P6" s="94"/>
-      <c r="R6" s="112"/>
+      <c r="R6" s="117"/>
       <c r="U6" t="s">
+        <v>208</v>
+      </c>
+      <c r="V6" s="92" t="s">
         <v>209</v>
-      </c>
-      <c r="V6" s="92" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
@@ -51153,29 +51883,29 @@
         <v>107000</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="87"/>
       <c r="G7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="93"/>
       <c r="L7" s="20"/>
       <c r="M7" s="1"/>
       <c r="O7" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P7" s="91"/>
-      <c r="R7" s="112"/>
+      <c r="R7" s="117"/>
       <c r="U7" t="s">
+        <v>310</v>
+      </c>
+      <c r="V7" t="s">
         <v>311</v>
-      </c>
-      <c r="V7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
@@ -51183,7 +51913,7 @@
         <v>109000</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="87"/>
       <c r="G8" s="20"/>
@@ -51191,10 +51921,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="O8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="70"/>
-      <c r="R8" s="112"/>
+      <c r="R8" s="117"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
@@ -51204,42 +51934,42 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
-      <c r="R9" s="112"/>
+      <c r="R9" s="117"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <v>255500</v>
       </c>
-      <c r="D10" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="109"/>
+      <c r="D10" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="114"/>
       <c r="G10" s="20"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="R10" s="112"/>
+      <c r="R10" s="117"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <v>103500</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="71"/>
       <c r="G11" s="20"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="R11" s="112"/>
+      <c r="R11" s="117"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <v>114500</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="71"/>
     </row>
@@ -51527,12 +52257,12 @@
   <sheetData>
     <row r="1" spans="2:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51556,34 +52286,34 @@
         <v>23</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="L5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="116"/>
+      <c r="O5" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="114"/>
+      <c r="R5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="S5" s="114"/>
+      <c r="U5" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="W5" t="s">
+        <v>197</v>
+      </c>
+      <c r="X5" s="92" t="s">
         <v>199</v>
-      </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="L5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" s="111"/>
-      <c r="O5" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="109"/>
-      <c r="R5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="S5" s="109"/>
-      <c r="U5" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="W5" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="92" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="17" x14ac:dyDescent="0.25">
@@ -51598,15 +52328,15 @@
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="90"/>
       <c r="L6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="71"/>
       <c r="O6" s="20" t="s">
@@ -51614,15 +52344,15 @@
       </c>
       <c r="P6" s="71"/>
       <c r="R6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S6" s="75"/>
-      <c r="U6" s="112"/>
+      <c r="U6" s="117"/>
       <c r="W6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X6" s="92" t="s">
         <v>209</v>
-      </c>
-      <c r="X6" s="92" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="17" x14ac:dyDescent="0.25">
@@ -51637,10 +52367,10 @@
       </c>
       <c r="E7" s="8"/>
       <c r="G7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="90"/>
@@ -51651,15 +52381,15 @@
       </c>
       <c r="P7" s="72"/>
       <c r="R7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S7" s="91"/>
-      <c r="U7" s="112"/>
+      <c r="U7" s="117"/>
       <c r="W7" t="s">
+        <v>310</v>
+      </c>
+      <c r="X7" t="s">
         <v>311</v>
-      </c>
-      <c r="X7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
@@ -51682,10 +52412,10 @@
       </c>
       <c r="P8" s="75"/>
       <c r="R8" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S8" s="70"/>
-      <c r="U8" s="112"/>
+      <c r="U8" s="117"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -51702,7 +52432,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
-      <c r="U9" s="112"/>
+      <c r="U9" s="117"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -51719,7 +52449,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="U10" s="112"/>
+      <c r="U10" s="117"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -51736,7 +52466,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="U11" s="112"/>
+      <c r="U11" s="117"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -52858,12 +53588,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52886,31 +53616,31 @@
       <c r="C5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="I5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="109"/>
-      <c r="L5" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="Q5" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="111"/>
-      <c r="T5" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" s="109"/>
+      <c r="E5" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="114"/>
+      <c r="L5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="Q5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="116"/>
+      <c r="T5" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="U5" s="114"/>
       <c r="W5" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="17" x14ac:dyDescent="0.25">
@@ -52927,31 +53657,31 @@
         <v>25</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J6" s="80"/>
       <c r="L6" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M6" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6" s="89"/>
       <c r="O6" s="90"/>
       <c r="Q6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R6" s="71"/>
       <c r="T6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U6" s="80"/>
-      <c r="W6" s="112"/>
+      <c r="W6" s="117"/>
       <c r="Y6" s="95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z6" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="17" x14ac:dyDescent="0.25">
@@ -52962,30 +53692,30 @@
         <v>107000</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
       <c r="L7" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M7" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N7" s="89"/>
       <c r="O7" s="90"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="1"/>
       <c r="T7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U7" s="91"/>
-      <c r="W7" s="112"/>
+      <c r="W7" s="117"/>
       <c r="Y7" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z7" t="s">
         <v>311</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
@@ -52996,7 +53726,7 @@
         <v>109000</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
@@ -53005,15 +53735,15 @@
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
       <c r="T8" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U8" s="75"/>
-      <c r="W8" s="112"/>
+      <c r="W8" s="117"/>
       <c r="Y8" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z8" t="s">
         <v>209</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.2">
@@ -53024,7 +53754,7 @@
         <v>148000</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
@@ -53033,10 +53763,10 @@
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
       <c r="T9" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U9" s="70"/>
-      <c r="W9" s="112"/>
+      <c r="W9" s="117"/>
     </row>
     <row r="10" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -53046,7 +53776,7 @@
         <v>255500</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
@@ -53054,7 +53784,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="W10" s="112"/>
+      <c r="W10" s="117"/>
     </row>
     <row r="11" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -53064,7 +53794,7 @@
         <v>103500</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
@@ -53072,7 +53802,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="W11" s="112"/>
+      <c r="W11" s="117"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -53492,12 +54222,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54297,12 +55027,12 @@
   <sheetData>
     <row r="1" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54318,10 +55048,10 @@
       <c r="C5" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -54331,7 +55061,7 @@
         <v>90.2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87"/>
     </row>
@@ -55150,7 +55880,7 @@
         <v>111</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M6" s="8">
         <v>9</v>
@@ -55161,7 +55891,7 @@
         <v>107</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M7" s="8">
         <v>18</v>
@@ -55172,7 +55902,7 @@
         <v>109</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M8" s="8">
         <v>9</v>
@@ -55183,7 +55913,7 @@
         <v>148</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M9" s="8">
         <v>7</v>
@@ -55194,7 +55924,7 @@
         <v>255.5</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M10" s="8">
         <v>3</v>
@@ -55205,7 +55935,7 @@
         <v>103.5</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M11" s="8">
         <v>2</v>
@@ -55216,7 +55946,7 @@
         <v>114.5</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" s="8">
         <v>1</v>
@@ -55227,7 +55957,7 @@
         <v>124</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" s="8">
         <v>1</v>
@@ -55238,7 +55968,7 @@
         <v>132.5</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M14" s="8">
         <v>1</v>
@@ -55249,7 +55979,7 @@
         <v>99</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M15" s="8">
         <v>0</v>
@@ -55260,7 +55990,7 @@
         <v>124</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M16" s="8">
         <v>0</v>
@@ -55271,7 +56001,7 @@
         <v>82</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M17" s="8">
         <v>0</v>
@@ -55282,7 +56012,7 @@
         <v>185</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M18" s="8">
         <v>1</v>
@@ -55293,7 +56023,7 @@
         <v>89.5</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M19" s="8">
         <v>0</v>
@@ -55304,7 +56034,7 @@
         <v>91.5</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M20" s="8">
         <v>0</v>
@@ -55315,7 +56045,7 @@
         <v>113.5</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M21" s="8">
         <v>0</v>
@@ -55326,7 +56056,7 @@
         <v>99</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M22" s="8">
         <v>0</v>
@@ -55337,7 +56067,7 @@
         <v>75.5</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M23" s="8">
         <v>1</v>
@@ -55552,12 +56282,12 @@
   <sheetData>
     <row r="1" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55582,13 +56312,13 @@
       <c r="F5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
+      <c r="H5" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -55637,7 +56367,7 @@
         <v>107000</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I7" s="87"/>
       <c r="J7" s="87"/>
@@ -56542,12 +57272,12 @@
   <sheetData>
     <row r="1" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -56563,10 +57293,10 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -56576,7 +57306,7 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
@@ -57368,12 +58098,12 @@
   <sheetData>
     <row r="1" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -57389,18 +58119,18 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -57410,18 +58140,18 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75"/>
       <c r="K6" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="71"/>
       <c r="N6" s="99"/>
@@ -57434,11 +58164,11 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87"/>
       <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L7" s="72"/>
     </row>
@@ -58227,12 +58957,12 @@
   <sheetData>
     <row r="1" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58258,21 +58988,21 @@
         <v>35</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="M5" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="P5" s="109" t="s">
+      <c r="I5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="M5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" s="109"/>
+      <c r="N5" s="114"/>
+      <c r="P5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="114"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -58297,11 +59027,11 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="M6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N6" s="75"/>
       <c r="P6" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="71"/>
     </row>
@@ -58324,16 +59054,16 @@
         <v>-13</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="M7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N7" s="87"/>
       <c r="P7" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="72"/>
     </row>
@@ -60243,12 +60973,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60264,22 +60994,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="N5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -60289,27 +61019,27 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>41.63016671209175</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="71">
         <v>250</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="97"/>
     </row>
@@ -60321,21 +61051,21 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>1.0325625976197308</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L7" s="72">
         <f>_xlfn.FORECAST.LINEAR(L6,C6:C100,B6:B100)</f>
         <v>299.77081611702442</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7" s="97"/>
     </row>
@@ -60347,7 +61077,7 @@
         <v>119</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="87"/>
     </row>
@@ -61125,12 +61855,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -61146,22 +61876,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="N5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -61171,27 +61901,27 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>41.63016671209175</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="71">
         <v>250</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="97" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
@@ -61206,21 +61936,21 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>1.0325625976197308</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L7" s="72">
         <f>_xlfn.FORECAST.LINEAR(L6,C6:C100,B6:B100)</f>
         <v>299.77081611702442</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7" s="97" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
@@ -61235,7 +61965,7 @@
         <v>119</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="87">
         <f>RSQ(C6:C100,B6:B100)</f>
@@ -61250,7 +61980,7 @@
         <v>334</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="97"/>
     </row>
@@ -61262,7 +61992,7 @@
         <v>252</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" s="75"/>
     </row>
@@ -62024,12 +62754,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62045,22 +62775,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="N5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -62070,27 +62800,27 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>41.63016671209175</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="71">
         <v>250</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="97" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
@@ -62105,21 +62835,21 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>1.0325625976197308</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L7" s="72">
         <f>_xlfn.FORECAST.LINEAR(L6,C6:C100,B6:B100)</f>
         <v>299.77081611702442</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7" s="97" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
@@ -62134,7 +62864,7 @@
         <v>119</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="87">
         <f>RSQ(C6:C100,B6:B100)</f>
@@ -62149,7 +62879,7 @@
         <v>334</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="97">
         <f>O6/(COUNT(C6:C100)-1-1)</f>
@@ -62164,7 +62894,7 @@
         <v>252</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" s="75">
         <f>STEYX(C6:C100,B6:B100)</f>
@@ -62929,12 +63659,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62950,22 +63680,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="N5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -62975,27 +63705,27 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>41.63016671209175</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6" s="71">
         <v>250</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="97" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
@@ -63010,21 +63740,21 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>1.0325625976197308</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L7" s="72">
         <f>_xlfn.FORECAST.LINEAR(L6,C6:C100,B6:B100)</f>
         <v>299.77081611702442</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7" s="97" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
@@ -63039,7 +63769,7 @@
         <v>119</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="87">
         <f>RSQ(C6:C100,B6:B100)</f>
@@ -63054,7 +63784,7 @@
         <v>334</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="97">
         <f>O6/(COUNT(C6:C100)-1-1)</f>
@@ -63069,7 +63799,7 @@
         <v>252</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" s="75">
         <f>STEYX(C6:C100,B6:B100)</f>
@@ -63084,7 +63814,7 @@
         <v>209</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O11" s="71"/>
     </row>
@@ -63096,7 +63826,7 @@
         <v>462</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O12" s="97"/>
     </row>
@@ -63108,7 +63838,7 @@
         <v>342</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O13" s="75"/>
     </row>
@@ -63120,7 +63850,7 @@
         <v>347</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="87"/>
     </row>
@@ -63851,12 +64581,12 @@
   <sheetData>
     <row r="1" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -63870,24 +64600,24 @@
         <v>76</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="N5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="109"/>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="114"/>
+      <c r="N5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -63897,27 +64627,27 @@
         <v>24</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(C6:C100,B6:B100)</f>
         <v>0.92556272300776632</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>-223.4190539652177</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L6" s="71">
         <v>90</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" s="97"/>
     </row>
@@ -63929,21 +64659,21 @@
         <v>-13</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>3.6394257812138537</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L7" s="72">
         <f>_xlfn.FORECAST.LINEAR(L6,C6:C100,B6:B100)</f>
         <v>104.12926634402913</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O7" s="97"/>
     </row>
@@ -63955,7 +64685,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="87"/>
     </row>
@@ -63969,7 +64699,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
       <c r="N9" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="97"/>
     </row>
@@ -63981,7 +64711,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" s="75"/>
     </row>
@@ -63993,7 +64723,7 @@
         <v>64</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O11" s="71"/>
     </row>
@@ -64005,7 +64735,7 @@
         <v>61</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O12" s="97"/>
     </row>
@@ -64017,7 +64747,7 @@
         <v>55</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O13" s="75"/>
     </row>
@@ -64029,7 +64759,7 @@
         <v>72</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="87"/>
     </row>
@@ -64758,12 +65488,12 @@
   <sheetData>
     <row r="1" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -64779,18 +65509,18 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="109"/>
-      <c r="K5" s="109" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="109"/>
+      <c r="E5" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="114"/>
+      <c r="K5" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -64800,21 +65530,21 @@
         <v>276</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="87">
         <f>PEARSON(B6:B100,C6:C100)</f>
         <v>0.94886589689776391</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" s="75">
         <f>INTERCEPT(C6:C100,B6:B100)</f>
         <v>41.63016671209175</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L6" s="97" cm="1">
         <f t="array" ref="L6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
@@ -64829,14 +65559,14 @@
         <v>410</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="87">
         <f>SLOPE(C6:C100,B6:B100)</f>
         <v>1.0325625976197308</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L7" s="97" cm="1">
         <f t="array" ref="L7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
@@ -64851,7 +65581,7 @@
         <v>119</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L8" s="87">
         <f>RSQ(C6:C100,B6:B100)</f>
@@ -64866,7 +65596,7 @@
         <v>334</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L9" s="97">
         <f>L6/(COUNT(C6:C100)-1-1)</f>
@@ -64881,7 +65611,7 @@
         <v>252</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L10" s="75">
         <f>STEYX(C6:C100,B6:B100)</f>
@@ -64896,7 +65626,7 @@
         <v>209</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L11" s="71">
         <v>0.05</v>
@@ -64910,7 +65640,7 @@
         <v>462</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L12" s="97">
         <f>(L7-L6)/1</f>
@@ -64925,7 +65655,7 @@
         <v>342</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L13" s="75">
         <f>L12/L9</f>
@@ -64940,7 +65670,7 @@
         <v>347</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L14" s="87">
         <f>_xlfn.F.DIST.RT(L13,1,COUNT(C6:C100)-1-1)</f>
@@ -65673,7 +66403,7 @@
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -65681,14 +66411,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5" s="115" t="s">
+      <c r="D5" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="116" t="s">
-        <v>328</v>
+      <c r="F5" s="106" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -65698,7 +66428,7 @@
       <c r="D6" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="102">
@@ -65712,7 +66442,7 @@
       <c r="D7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" s="102">
@@ -65726,7 +66456,7 @@
       <c r="D8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8">
         <v>17</v>
       </c>
       <c r="F8" s="102">
@@ -65740,7 +66470,7 @@
       <c r="D9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9">
         <v>24</v>
       </c>
       <c r="F9" s="102">
@@ -65754,7 +66484,7 @@
       <c r="D10" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10">
         <v>29</v>
       </c>
       <c r="F10" s="102">
@@ -65768,7 +66498,7 @@
       <c r="D11" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11">
         <v>17</v>
       </c>
       <c r="F11" s="102">
@@ -65782,7 +66512,7 @@
       <c r="D12" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="102">
@@ -65796,7 +66526,7 @@
       <c r="D13" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="102">
@@ -65810,7 +66540,7 @@
       <c r="D14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14">
         <v>95</v>
       </c>
       <c r="F14" s="102"/>
@@ -65829,11 +66559,11 @@
       <c r="B17" s="8">
         <v>66.900000000000006</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="107" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="107" t="s">
         <v>329</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -65843,7 +66573,7 @@
       <c r="D18" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
@@ -65854,7 +66584,7 @@
       <c r="D19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19">
         <v>3</v>
       </c>
     </row>
@@ -65865,7 +66595,7 @@
       <c r="D20" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20">
         <v>17</v>
       </c>
     </row>
@@ -65876,7 +66606,7 @@
       <c r="D21" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21">
         <v>24</v>
       </c>
     </row>
@@ -65887,7 +66617,7 @@
       <c r="D22" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22">
         <v>29</v>
       </c>
     </row>
@@ -65898,7 +66628,7 @@
       <c r="D23" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23">
         <v>17</v>
       </c>
     </row>
@@ -65909,7 +66639,7 @@
       <c r="D24" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24">
         <v>3</v>
       </c>
     </row>
@@ -65920,7 +66650,7 @@
       <c r="D25" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
@@ -66326,12 +67056,12 @@
   <sheetData>
     <row r="1" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -67425,7 +68155,7 @@
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -67447,20 +68177,20 @@
       <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="109" t="s">
+      <c r="F5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="L5" s="110" t="s">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="L5" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -68041,10 +68771,10 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -68368,7 +69098,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68379,11 +69109,11 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A65218-FCC1-2149-A836-44B7412283F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B482C0F-AEBA-A34C-86F1-825C3D451358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="20140" firstSheet="15" activeTab="18" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="20140" firstSheet="17" activeTab="25" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -90,11 +90,50 @@
     <definedName name="_xlchart.v1.10" hidden="1">Variability!$C$5</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Variability!$C$6:$C$100</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'Normal Distributions'!$B$6:$B$58</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Normal Distributions'!$B$6:$B$58</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Normal Curve'!$H$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Frequency Distributions'!$D$18:$D$25</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Normal Curve'!$H$5</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Frequency Distributions'!$E$17</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Normal Curve'!$H$5</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Frequency Distributions'!$E$18:$E$25</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Normal Curve'!$H$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Normal Curve'!$I$5</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
@@ -149,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="332">
   <si>
     <t>DESCRIPTIVE STATISTICS</t>
   </si>
@@ -1342,6 +1381,9 @@
   <si>
     <t>Do our graduates' annual salaries follow a normal distribution? NO</t>
   </si>
+  <si>
+    <t>This is the emperical rule that says 68% of value live 1 STA DIV away from the mean</t>
+  </si>
 </sst>
 </file>
 
@@ -2588,6 +2630,947 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Evaluation'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employability Improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4919385076865396E-3"/>
+                  <c:y val="0.44710958005249346"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model Evaluation'!$B$6:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>63.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model Evaluation'!$C$6:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ECB-4A2B-82B9-F7093D38DE5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466152320"/>
+        <c:axId val="466144416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466152320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Evaluation'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Undergrad Grade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466144416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466144416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Evaluation'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employability Improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466152320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3054,14 +4037,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0"/>
-              <a:t>Employability</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribution of MBA Grades</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" baseline="0"/>
-              <a:t> Scores</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>X ~ N(80.17,6.17)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3097,637 +4084,182 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$C$5</c:f>
+              <c:f>'Normal Curve'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Employability (After)</c:v>
+                  <c:v>Cumulative Probability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="48000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Linear Regression'!$B$6:$B$100</c:f>
+              <c:f>'Normal Curve'!$G$6:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>401</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>275</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>254</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>152</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>228</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>393</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>277</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>206</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>268</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Linear Regression'!$C$6:$C$100</c:f>
+              <c:f>'Normal Curve'!$I$6:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>276</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>252</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>462</c:v>
+                  <c:v>2.6913838820218548E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>342</c:v>
+                  <c:v>3.922064118584874E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>347</c:v>
+                  <c:v>5.1455617885659118E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>313</c:v>
+                  <c:v>6.0775700353358199E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>232</c:v>
+                  <c:v>6.4625841766344283E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>163</c:v>
+                  <c:v>6.186735083523575E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119</c:v>
+                  <c:v>5.332070624163418E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>304</c:v>
+                  <c:v>4.137226830550346E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>211</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>286</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>443</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>366</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>244</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>444</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>256</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D436-4CD8-995C-FAD16089EDD1}"/>
+              <c16:uniqueId val="{00000001-E704-9A4B-B8E7-0ACBC1F34B62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3739,14 +4271,208 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466164800"/>
-        <c:axId val="466153984"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="466164800"/>
+        <c:axId val="1208926032"/>
+        <c:axId val="1142741824"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Normal Curve'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probability Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Normal Curve'!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Normal Curve'!$H$6:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.0952931395656784E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4716192775783749E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.087421445520822E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6305536271465499E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2477219127595003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6627067938365887E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6913838820218548E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.922064118584874E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1455617885659118E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0775700353358199E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4625841766344283E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.186735083523575E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.332070624163418E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.137226830550346E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8900265870792894E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.817495774949713E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0290205502344866E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2450997543787847E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4069248056546818E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9437537201741604E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6984288004996362E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E704-9A4B-B8E7-0ACBC1F34B62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1208926032"/>
+        <c:axId val="1142741824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1208926032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3757,7 +4483,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3770,8 +4496,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Before</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X - MBA Grade</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3789,7 +4515,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3814,8 +4540,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3842,114 +4568,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466153984"/>
+        <c:crossAx val="1142741824"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="466153984"/>
+        <c:axId val="1142741824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>After</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466164800"/>
+        <c:crossAx val="1208926032"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3975,7 +4615,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4083,7 +4728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Predictions!$C$5</c:f>
+              <c:f>'Linear Regression'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4114,61 +4759,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13745819358001662"/>
-                  <c:y val="0.47643518518518518"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Predictions!$B$6:$B$100</c:f>
+              <c:f>'Linear Regression'!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -4462,7 +5055,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Predictions!$C$6:$C$100</c:f>
+              <c:f>'Linear Regression'!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -4757,7 +5350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E3A-4B83-A89A-08B220C80AEE}"/>
+              <c16:uniqueId val="{00000000-D436-4CD8-995C-FAD16089EDD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5113,7 +5706,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R-Squared'!$C$5</c:f>
+              <c:f>Predictions!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5163,7 +5756,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.13745819358001662"/>
-                  <c:y val="0.42550925925925925"/>
+                  <c:y val="0.47643518518518518"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5198,7 +5791,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'R-Squared'!$B$6:$B$100</c:f>
+              <c:f>Predictions!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -5492,7 +6085,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R-Squared'!$C$6:$C$100</c:f>
+              <c:f>Predictions!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -5787,7 +6380,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A509-453E-9D3E-E1379A8E8442}"/>
+              <c16:uniqueId val="{00000001-9E3A-4B83-A89A-08B220C80AEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6143,7 +6736,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Standard Error'!$C$5</c:f>
+              <c:f>'R-Squared'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6187,7 +6780,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -6228,7 +6821,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Standard Error'!$B$6:$B$100</c:f>
+              <c:f>'R-Squared'!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -6522,7 +7115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Standard Error'!$C$6:$C$100</c:f>
+              <c:f>'R-Squared'!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -6817,7 +7410,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41D6-45F3-9148-240C148BADAF}"/>
+              <c16:uniqueId val="{00000001-A509-453E-9D3E-E1379A8E8442}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7173,7 +7766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Homoskedasticity!$C$5</c:f>
+              <c:f>'Standard Error'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7258,7 +7851,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Homoskedasticity!$B$6:$B$100</c:f>
+              <c:f>'Standard Error'!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -7552,7 +8145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Homoskedasticity!$C$6:$C$100</c:f>
+              <c:f>'Standard Error'!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -7847,7 +8440,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FCD-4253-9334-7ADA564930B4}"/>
+              <c16:uniqueId val="{00000001-41D6-45F3-9148-240C148BADAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8203,7 +8796,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Hypothesis Test'!$C$5</c:f>
+              <c:f>Homoskedasticity!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8288,7 +8881,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Hypothesis Test'!$B$6:$B$100</c:f>
+              <c:f>Homoskedasticity!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -8582,7 +9175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Hypothesis Test'!$C$6:$C$100</c:f>
+              <c:f>Homoskedasticity!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -8877,7 +9470,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB68-4539-97AE-13132271139D}"/>
+              <c16:uniqueId val="{00000001-5FCD-4253-9334-7ADA564930B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9162,7 +9755,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>Employability</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t> Scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -9173,11 +9826,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model Evaluation'!$C$5</c:f>
+              <c:f>'Hypothesis Test'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Employability Improvement</c:v>
+                  <c:v>Employability (After)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9206,7 +9859,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="75000"/>
@@ -9217,13 +9870,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.4919385076865396E-3"/>
-                  <c:y val="0.44710958005249346"/>
+                  <c:x val="0.13745819358001662"/>
+                  <c:y val="0.42550925925925925"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9258,588 +9911,588 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Model Evaluation'!$B$6:$B$100</c:f>
+              <c:f>'Hypothesis Test'!$B$6:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>68.400000000000006</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.1</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.2</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.9</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.5</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.400000000000006</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.6</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.900000000000006</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.3</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.8</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>75.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>82.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>79.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67.900000000000006</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>76.8</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>88.9</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76.5</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79.900000000000006</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83.4</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.2</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61.2</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>78.5</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75.2</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>93.6</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.3</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>71.400000000000006</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.900000000000006</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.099999999999994</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>88.7</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69.400000000000006</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80.3</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79.400000000000006</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>88.1</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.1</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>79.7</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>82.1</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>70.2</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81.7</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.099999999999994</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65.400000000000006</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>75.3</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.7</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>75.7</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>68.7</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.3</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>71.7</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70.900000000000006</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>66.3</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>65.3</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>75.7</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>66</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78.900000000000006</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>79.3</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>88.8</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>66</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.9</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>100</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>67.5</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>68.7</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>76</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>67.7</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>75.3</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>63.3</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model Evaluation'!$C$6:$C$100</c:f>
+              <c:f>'Hypothesis Test'!$C$6:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-11</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>101</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-7</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>58</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>121</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>79</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>60</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>80</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>68</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>46</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>76</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>115</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>77</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>70</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>96</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>69</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>31</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>33</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>37</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>56</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>61</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>73</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>35</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>104</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>81</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>139</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>60</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>36</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>53</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-12</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9847,7 +10500,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7ECB-4A2B-82B9-F7093D38DE5C}"/>
+              <c16:uniqueId val="{00000001-CB68-4539-97AE-13132271139D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9859,29 +10512,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466152320"/>
-        <c:axId val="466144416"/>
+        <c:axId val="466164800"/>
+        <c:axId val="466153984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466152320"/>
+        <c:axId val="466164800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="60"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>'Model Evaluation'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Undergrad Grade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Before</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -9915,7 +10581,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9949,28 +10615,43 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466144416"/>
+        <c:crossAx val="466153984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466144416"/>
+        <c:axId val="466153984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>'Model Evaluation'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Employability Improvement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>After</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
@@ -10038,9 +10719,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466152320"/>
+        <c:crossAx val="466164800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10850,6 +11532,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13777,6 +14499,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17350,7 +18588,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17377,8 +18615,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17458,6 +18696,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17468,6 +18711,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17479,7 +18727,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -17499,6 +18747,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17511,10 +18762,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -17554,23 +18805,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -17675,8 +18925,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17808,20 +19058,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -17835,17 +19084,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18504,6 +19742,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5F122B-38D6-2BA1-FF74-DEAE6CDB9A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="2667000"/>
+          <a:ext cx="2554445" cy="530398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -18593,7 +19880,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18686,7 +19973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18779,7 +20066,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18828,7 +20115,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18877,7 +20164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18926,7 +20213,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18975,7 +20262,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19024,7 +20311,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19062,99 +20349,6 @@
         <a:xfrm>
           <a:off x="4124325" y="2705100"/>
           <a:ext cx="8059611" cy="1938696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>129349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7830</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83596140-2740-4967-88AB-78E8F498F8C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11201400" y="2910649"/>
-          <a:ext cx="3609975" cy="2735981"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>598467</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107694</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C99635-5A35-8D4A-3E45-EABF73809F6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="2838450"/>
-          <a:ext cx="7827942" cy="2908044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19251,6 +20445,99 @@
 
 <file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83596140-2740-4967-88AB-78E8F498F8C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="2910649"/>
+          <a:ext cx="3609975" cy="2735981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598467</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C99635-5A35-8D4A-3E45-EABF73809F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2838450"/>
+          <a:ext cx="7827942" cy="2908044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -19290,7 +20577,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19333,7 +20620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19376,7 +20663,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19463,7 +20750,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19506,7 +20793,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19681,7 +20968,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20065,6 +21352,47 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668A7A4A-2842-9E50-5389-43307FF7247A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -20100,55 +21428,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4105275" y="2667000"/>
-          <a:ext cx="2554445" cy="530398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>468470</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>168448</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5F122B-38D6-2BA1-FF74-DEAE6CDB9A80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="2667000"/>
           <a:ext cx="2554445" cy="530398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -32817,7 +34096,7 @@
   </sheetPr>
   <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -33785,7 +35064,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33845,7 +35124,9 @@
       <c r="G6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="71">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -33861,7 +35142,10 @@
       <c r="G7" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="81">
+        <f>_xlfn.NORM.DIST(H6,E6,E7,TRUE)</f>
+        <v>4.9675867098228202E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -34347,10 +35631,10 @@
   <sheetPr codeName="Sheet21">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:E100"/>
+  <dimension ref="B1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34361,23 +35645,23 @@
     <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
@@ -34386,71 +35670,81 @@
       </c>
       <c r="E5" s="114"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>90.2</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="71"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>92.8</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="71"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>68.7</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="81"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="81">
+        <f>_xlfn.NORM.S.DIST(E7,TRUE)-_xlfn.NORM.S.DIST(E6,TRUE)</f>
+        <v>0.68268949213708607</v>
+      </c>
+      <c r="F8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>80.7</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <v>80.7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>83.3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>88.7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>82.1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>87.5</v>
       </c>
@@ -34892,7 +36186,7 @@
   <dimension ref="B1:H100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34949,7 +36243,9 @@
       <c r="G6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="71">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -34965,7 +36261,10 @@
       <c r="G7" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="81">
+        <f>1-_xlfn.NORM.DIST(H6,E6,E7,TRUE)</f>
+        <v>5.5571485331932569E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -35451,8 +36750,8 @@
   </sheetPr>
   <dimension ref="B1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35515,8 +36814,14 @@
       <c r="G6" s="8">
         <v>60</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="8">
+        <f>_xlfn.NORM.DIST(G6,$E$6,$E$7,FALSE)</f>
+        <v>3.0952931395656784E-4</v>
+      </c>
+      <c r="I6" s="8">
+        <f>IF(AND(G6&gt;=72,G6&lt;=86),H6,-100)</f>
+        <v>-100</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -35532,8 +36837,14 @@
       <c r="G7" s="8">
         <v>62</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="8">
+        <f t="shared" ref="H7:H26" si="0">_xlfn.NORM.DIST(G7,$E$6,$E$7,FALSE)</f>
+        <v>8.4716192775783749E-4</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I26" si="1">IF(AND(G7&gt;=72,G7&lt;=86),H7,-100)</f>
+        <v>-100</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -35542,8 +36853,14 @@
       <c r="G8" s="8">
         <v>64</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.087421445520822E-3</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -35552,8 +36869,14 @@
       <c r="G9" s="8">
         <v>66</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>4.6305536271465499E-3</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -35562,8 +36885,14 @@
       <c r="G10" s="8">
         <v>68</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>9.2477219127595003E-3</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -35572,8 +36901,14 @@
       <c r="G11" s="8">
         <v>70</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6627067938365887E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -35582,8 +36917,14 @@
       <c r="G12" s="8">
         <v>72</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6913838820218548E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6913838820218548E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -35592,8 +36933,14 @@
       <c r="G13" s="8">
         <v>74</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.922064118584874E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>3.922064118584874E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
@@ -35602,8 +36949,14 @@
       <c r="G14" s="8">
         <v>76</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1455617885659118E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>5.1455617885659118E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
@@ -35612,8 +36965,14 @@
       <c r="G15" s="8">
         <v>78</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>6.0775700353358199E-2</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0775700353358199E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
@@ -35622,8 +36981,14 @@
       <c r="G16" s="8">
         <v>80</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>6.4625841766344283E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4625841766344283E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
@@ -35632,8 +36997,14 @@
       <c r="G17" s="8">
         <v>82</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>6.186735083523575E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>6.186735083523575E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
@@ -35642,8 +37013,14 @@
       <c r="G18" s="8">
         <v>84</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>5.332070624163418E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>5.332070624163418E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
@@ -35652,8 +37029,14 @@
       <c r="G19" s="8">
         <v>86</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>4.137226830550346E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>4.137226830550346E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
@@ -35662,8 +37045,14 @@
       <c r="G20" s="8">
         <v>88</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8900265870792894E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
@@ -35672,8 +37061,14 @@
       <c r="G21" s="8">
         <v>90</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.817495774949713E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
@@ -35682,8 +37077,14 @@
       <c r="G22" s="8">
         <v>92</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0290205502344866E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
@@ -35692,8 +37093,14 @@
       <c r="G23" s="8">
         <v>94</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>5.2450997543787847E-3</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
@@ -35702,8 +37109,14 @@
       <c r="G24" s="8">
         <v>96</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4069248056546818E-3</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
@@ -35712,8 +37125,14 @@
       <c r="G25" s="8">
         <v>98</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9437537201741604E-4</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -35722,8 +37141,14 @@
       <c r="G26" s="8">
         <v>100</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6984288004996362E-4</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
@@ -36101,6 +37526,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36112,7 +37538,7 @@
   <dimension ref="B1:H100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36169,7 +37595,9 @@
       <c r="G6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -36185,7 +37613,9 @@
       <c r="G7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -36194,7 +37624,10 @@
       <c r="G8" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="83">
+        <f>_xlfn.NORM.INV(H6,$E$6,$E$7)</f>
+        <v>76.007345795765744</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -36205,7 +37638,10 @@
       <c r="G9" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="83">
+        <f>_xlfn.NORM.INV(H7,$E$6,$E$7)</f>
+        <v>84.331601572655288</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -36682,7 +38118,7 @@
   <dimension ref="B1:H100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36739,7 +38175,9 @@
       <c r="G6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="77">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -36755,7 +38193,10 @@
       <c r="G7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="70">
+        <f>_xlfn.NORM.S.INV(H6)</f>
+        <v>-0.84162123357291452</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -37247,8 +38688,8 @@
   </sheetPr>
   <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37305,7 +38746,10 @@
       <c r="G6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <f>1-10%</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -37321,7 +38765,10 @@
       <c r="G7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="83">
+        <f>_xlfn.NORM.INV((H6),$E$6,$E$7)</f>
+        <v>88.077646506529305</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -37330,7 +38777,10 @@
       <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="84">
+        <f>_xlfn.NORM.S.INV(H6)</f>
+        <v>1.2815515655446006</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8">

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B482C0F-AEBA-A34C-86F1-825C3D451358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A0E62C-7680-CB43-BBE2-1CCB054C0002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="20140" firstSheet="17" activeTab="25" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" firstSheet="28" activeTab="28" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -90,50 +90,10 @@
     <definedName name="_xlchart.v1.10" hidden="1">Variability!$C$5</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Variability!$C$6:$C$100</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'Normal Distributions'!$B$6:$B$58</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Normal Curve'!$H$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Frequency Distributions'!$D$18:$D$25</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Normal Curve'!$H$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Frequency Distributions'!$E$17</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Normal Curve'!$H$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Frequency Distributions'!$E$18:$E$25</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Normal Curve'!$H$5</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Normal Curve'!$G$6:$G$26</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Normal Curve'!$H$5</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Box &amp; Whisker'!$B$5</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Normal Curve'!$H$6:$H$26</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Normal Curve'!$I$5</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Normal Curve'!$I$6:$I$26</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Box &amp; Whisker'!$B$6:$B$100</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Box &amp; Whisker'!$C$5</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Box &amp; Whisker'!$C$6:$C$100</definedName>
@@ -34097,7 +34057,7 @@
   <dimension ref="B1:M58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34531,7 +34491,7 @@
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38688,7 +38648,7 @@
   </sheetPr>
   <dimension ref="B1:H100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -39260,7 +39220,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39321,15 +39281,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNT(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.9</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="75"/>
+      <c r="K6" s="75">
+        <f>E7-H11</f>
+        <v>274.159110498644</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -39338,15 +39306,24 @@
       <c r="D7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="72">
+        <f>AVERAGE(B6:B100)</f>
+        <v>289.34736842105264</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="75">
+        <f>E7+H11</f>
+        <v>304.53562634346127</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -39355,7 +39332,10 @@
       <c r="G8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="85">
+        <f>H7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -39368,7 +39348,10 @@
       <c r="G9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="86">
+        <f>_xlfn.NORM.S.INV(1-H8)</f>
+        <v>1.6448536269514715</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -39383,7 +39366,10 @@
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="75">
+        <f>E10/SQRT(E6)</f>
+        <v>9.2338051687663878</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -39394,7 +39380,10 @@
       <c r="G11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="75">
+        <f>H10*H9</f>
+        <v>15.188257922408638</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -39862,7 +39851,7 @@
   <dimension ref="B1:K58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39923,15 +39912,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNT(B6:B58)</f>
+        <v>53</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.8</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="80">
+        <f>E7-H8</f>
+        <v>106008.15937411779</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
@@ -39940,15 +39937,24 @@
       <c r="D7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="80">
+        <f>AVERAGE(B6:B58)</f>
+        <v>119386.7924528302</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="80">
+        <f>E7+H8</f>
+        <v>132765.4255315426</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
@@ -39959,7 +39965,10 @@
       <c r="G8" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="80"/>
+      <c r="H8" s="80">
+        <f>_xlfn.CONFIDENCE.NORM(H7,E11,E6)</f>
+        <v>13378.633078712406</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
@@ -40247,7 +40256,7 @@
   </sheetPr>
   <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A0E62C-7680-CB43-BBE2-1CCB054C0002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7B019-A21B-1049-8DA0-DEDAD8032077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" firstSheet="28" activeTab="28" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="27" activeTab="33" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="332">
   <si>
     <t>DESCRIPTIVE STATISTICS</t>
   </si>
@@ -40256,8 +40256,8 @@
   </sheetPr>
   <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40318,15 +40318,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNT(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.9</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="75"/>
+      <c r="K6" s="75">
+        <f>E7-H11</f>
+        <v>273.40781140085119</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -40335,15 +40343,24 @@
       <c r="D7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="72">
+        <f>AVERAGE(B6:B100)</f>
+        <v>289.34736842105264</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="75">
+        <f>E7+H11</f>
+        <v>305.28692544125408</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -40352,11 +40369,17 @@
       <c r="D8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="75">
+        <f>STDEV(B6:B100)</f>
+        <v>93.521048765238149</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="85">
+        <f>H7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -40365,7 +40388,10 @@
       <c r="G9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="86">
+        <f>_xlfn.T.INV(1-H8,E6-1)</f>
+        <v>1.6612258552965111</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -40374,7 +40400,10 @@
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="75">
+        <f>E8/SQRT(E6)</f>
+        <v>9.5950571497434378</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -40383,7 +40412,10 @@
       <c r="G11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="75">
+        <f>_xlfn.CONFIDENCE.T(H7,E8,E6)</f>
+        <v>15.939557020201446</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -41470,7 +41502,7 @@
   <dimension ref="B1:K58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41531,15 +41563,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNT(B6:B58)</f>
+        <v>53</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.8</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="80">
+        <f>E7-H8</f>
+        <v>111265.76090747744</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
@@ -41548,15 +41588,24 @@
       <c r="D7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="80">
+        <f>AVERAGE(B6:B58)</f>
+        <v>119386.7924528302</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="80"/>
+      <c r="K7" s="80">
+        <f>E7+H8</f>
+        <v>127507.82399818295</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
@@ -41565,11 +41614,17 @@
       <c r="D8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="80">
+        <f>STDEV(B6:B58)</f>
+        <v>45546.958176470725</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="80"/>
+      <c r="H8" s="80">
+        <f>_xlfn.CONFIDENCE.T(H7,E8,E6)</f>
+        <v>8121.0315453527564</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
@@ -41842,7 +41897,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41903,15 +41958,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNTA(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.9</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="82"/>
+      <c r="K6" s="82">
+        <f>E7-H11</f>
+        <v>0.1698162967729179</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -41920,15 +41983,24 @@
       <c r="D7" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="87">
+        <f>COUNTIFS(B6:B100,"Yes")/E6</f>
+        <v>0.24210526315789474</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="82">
+        <f>E7+H11</f>
+        <v>0.31439422954287155</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -41937,11 +42009,17 @@
       <c r="D8" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="87">
+        <f>1-E7</f>
+        <v>0.75789473684210529</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="85">
+        <f>H7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -41950,7 +42028,10 @@
       <c r="G9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="86">
+        <f>_xlfn.NORM.S.INV(1-H8)</f>
+        <v>1.6448536269514715</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -41963,7 +42044,10 @@
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="81">
+        <f>SQRT(E7*E8/E6)</f>
+        <v>4.394857098558691E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -41972,11 +42056,17 @@
       <c r="D11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="71">
+        <f>E7*E6</f>
+        <v>23</v>
+      </c>
       <c r="G11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="87"/>
+      <c r="H11" s="87">
+        <f>H9*H10</f>
+        <v>7.2288966384976838E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -41985,7 +42075,10 @@
       <c r="D12" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="71">
+        <f>(1-E7)*E6</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
@@ -42448,7 +42541,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42509,15 +42602,23 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNTA(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="82">
+        <v>0.95</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="82"/>
+      <c r="K6" s="82">
+        <f>E7-H11</f>
+        <v>0.45802698737891206</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -42526,15 +42627,24 @@
       <c r="D7" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="87">
+        <f>COUNTIFS(B6:B100,"Placed")/E6</f>
+        <v>0.55789473684210522</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="82">
+        <f>1-H6</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="82">
+        <f>H11+E7</f>
+        <v>0.65776248630529843</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -42543,11 +42653,17 @@
       <c r="D8" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="87">
+        <f>1-E7</f>
+        <v>0.44210526315789478</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="85">
+        <f>H7/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -42556,7 +42672,10 @@
       <c r="G9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="86">
+        <f>_xlfn.NORM.S.INV(1-H8)</f>
+        <v>1.9599639845400536</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -42569,7 +42688,10 @@
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="81">
+        <f>SQRT(E7*E8/E6)</f>
+        <v>5.0953869688901053E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -42578,11 +42700,17 @@
       <c r="D11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="71">
+        <f>E7*E6</f>
+        <v>52.999999999999993</v>
+      </c>
       <c r="G11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="87"/>
+      <c r="H11" s="87">
+        <f>H10*H9</f>
+        <v>9.986774946319317E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -42591,7 +42719,10 @@
       <c r="D12" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="71">
+        <f>(1-E7)*E6</f>
+        <v>42.000000000000007</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
@@ -43055,7 +43186,7 @@
   <dimension ref="B1:N100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43131,19 +43262,30 @@
       <c r="D6" s="8">
         <v>90.2</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>21.799999999999997</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="71">
+        <f>COUNT(E6:E100)</f>
+        <v>95</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="82"/>
+      <c r="K6" s="82">
+        <v>0.95</v>
+      </c>
       <c r="M6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="75">
+        <f>H7-K11</f>
+        <v>3.3169926990789627</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -43155,19 +43297,31 @@
       <c r="D7" s="8">
         <v>92.8</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E70" si="0">D7-C7</f>
+        <v>30.699999999999996</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="72">
+        <f>AVERAGE(E6:E100)</f>
+        <v>5.1957894736842114</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="82">
+        <f>1-K6</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="M7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="75"/>
+      <c r="N7" s="75">
+        <f>H7+K11</f>
+        <v>7.0745862482894601</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -43179,15 +43333,24 @@
       <c r="D8" s="8">
         <v>68.7</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="75">
+        <f>STDEV(E6:E100)</f>
+        <v>9.2241463398998604</v>
+      </c>
       <c r="J8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="85"/>
+      <c r="K8" s="85">
+        <f>K7/2</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -43199,11 +43362,17 @@
       <c r="D9" s="8">
         <v>80.7</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000085</v>
+      </c>
       <c r="J9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="86"/>
+      <c r="K9" s="86">
+        <f>_xlfn.T.INV(1-K8,H6)</f>
+        <v>1.9852510035054973</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -43215,11 +43384,17 @@
       <c r="D10" s="8">
         <v>74.900000000000006</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>14.000000000000007</v>
+      </c>
       <c r="J10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="75">
+        <f>H8/SQRT(H6)</f>
+        <v>0.94637744612027652</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -43231,11 +43406,17 @@
       <c r="D11" s="8">
         <v>80.7</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000028</v>
+      </c>
       <c r="J11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="75">
+        <f>K9*K10</f>
+        <v>1.8787967746052487</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -43247,7 +43428,10 @@
       <c r="D12" s="8">
         <v>83.3</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999915</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -43259,7 +43443,10 @@
       <c r="D13" s="8">
         <v>88.7</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000085</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
@@ -43271,7 +43458,10 @@
       <c r="D14" s="8">
         <v>75.400000000000006</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
@@ -43283,7 +43473,10 @@
       <c r="D15" s="8">
         <v>82.1</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000028</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
@@ -43295,7 +43488,10 @@
       <c r="D16" s="8">
         <v>87.5</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>11.700000000000003</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
@@ -43307,7 +43503,10 @@
       <c r="D17" s="8">
         <v>66.900000000000006</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.0999999999999943</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
@@ -43319,7 +43518,10 @@
       <c r="D18" s="8">
         <v>71.3</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
@@ -43331,7 +43533,10 @@
       <c r="D19" s="8">
         <v>76.8</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
@@ -43343,7 +43548,10 @@
       <c r="D20" s="8">
         <v>72.3</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.7000000000000028</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
@@ -43355,7 +43563,10 @@
       <c r="D21" s="8">
         <v>72.400000000000006</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
@@ -43367,7 +43578,10 @@
       <c r="D22" s="8">
         <v>72</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.7999999999999972</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
@@ -43379,7 +43593,10 @@
       <c r="D23" s="8">
         <v>81</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
@@ -43391,7 +43608,10 @@
       <c r="D24" s="8">
         <v>96.1</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>13.699999999999989</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
@@ -43403,7 +43623,10 @@
       <c r="D25" s="8">
         <v>76.7</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -43415,7 +43638,10 @@
       <c r="D26" s="8">
         <v>80.3</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>17.799999999999997</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
@@ -43427,7 +43653,10 @@
       <c r="D27" s="8">
         <v>77.8</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
@@ -43439,7 +43668,10 @@
       <c r="D28" s="8">
         <v>62.6</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.8999999999999986</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
@@ -43451,7 +43683,10 @@
       <c r="D29" s="8">
         <v>80.2</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>16.700000000000003</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
@@ -43463,7 +43698,10 @@
       <c r="D30" s="8">
         <v>79.099999999999994</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -43475,7 +43713,10 @@
       <c r="D31" s="8">
         <v>77.8</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000000057</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
@@ -43487,7 +43728,10 @@
       <c r="D32" s="8">
         <v>75.099999999999994</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
@@ -43499,7 +43743,10 @@
       <c r="D33" s="8">
         <v>82.2</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999972</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
@@ -43511,7 +43758,10 @@
       <c r="D34" s="8">
         <v>70.5</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999943</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
@@ -43523,7 +43773,10 @@
       <c r="D35" s="8">
         <v>70.8</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
@@ -43535,7 +43788,10 @@
       <c r="D36" s="8">
         <v>87.5</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
@@ -43547,7 +43803,10 @@
       <c r="D37" s="8">
         <v>79.5</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.4000000000000057</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
@@ -43559,7 +43818,10 @@
       <c r="D38" s="8">
         <v>80.8</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999972</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
@@ -43571,7 +43833,10 @@
       <c r="D39" s="8">
         <v>79.599999999999994</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000001137</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
@@ -43583,7 +43848,10 @@
       <c r="D40" s="8">
         <v>88.9</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
@@ -43595,7 +43863,10 @@
       <c r="D41" s="8">
         <v>85.9</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
@@ -43607,7 +43878,10 @@
       <c r="D42" s="8">
         <v>82.3</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999943</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
@@ -43619,7 +43893,10 @@
       <c r="D43" s="8">
         <v>76.7</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
@@ -43631,7 +43908,10 @@
       <c r="D44" s="8">
         <v>79.900000000000006</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>15.900000000000006</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
@@ -43643,7 +43923,10 @@
       <c r="D45" s="8">
         <v>86.2</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>18.200000000000003</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
@@ -43655,7 +43938,10 @@
       <c r="D46" s="8">
         <v>79.2</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000284</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
@@ -43667,7 +43953,10 @@
       <c r="D47" s="8">
         <v>83.4</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000568</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
@@ -43679,7 +43968,10 @@
       <c r="D48" s="8">
         <v>85.2</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
@@ -43691,7 +43983,10 @@
       <c r="D49" s="8">
         <v>77.8</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000028</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
@@ -43703,7 +43998,10 @@
       <c r="D50" s="8">
         <v>80.2</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>-13.399999999999991</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
@@ -43715,7 +44013,10 @@
       <c r="D51" s="8">
         <v>71</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.5999999999999943</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
@@ -43727,7 +44028,10 @@
       <c r="D52" s="8">
         <v>87.2</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000057</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
@@ -43739,7 +44043,10 @@
       <c r="D53" s="8">
         <v>82.9</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
@@ -43751,7 +44058,10 @@
       <c r="D54" s="8">
         <v>73.5</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999943</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
@@ -43763,7 +44073,10 @@
       <c r="D55" s="8">
         <v>74.599999999999994</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
@@ -43775,7 +44088,10 @@
       <c r="D56" s="8">
         <v>75.099999999999994</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>-13.600000000000009</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
@@ -43787,7 +44103,10 @@
       <c r="D57" s="8">
         <v>85.1</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>15.699999999999989</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
@@ -43799,7 +44118,10 @@
       <c r="D58" s="8">
         <v>74.900000000000006</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.3999999999999915</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
@@ -43811,7 +44133,10 @@
       <c r="D59" s="8">
         <v>84.6</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999943</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
@@ -43823,7 +44148,10 @@
       <c r="D60" s="8">
         <v>81.7</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000085</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
@@ -43835,7 +44163,10 @@
       <c r="D61" s="8">
         <v>81.400000000000006</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
@@ -43847,7 +44178,10 @@
       <c r="D62" s="8">
         <v>83.8</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.2999999999999972</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
@@ -43859,7 +44193,10 @@
       <c r="D63" s="8">
         <v>88.5</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>13.900000000000006</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
@@ -43871,7 +44208,10 @@
       <c r="D64" s="8">
         <v>84.9</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.1999999999999886</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
@@ -43883,7 +44223,10 @@
       <c r="D65" s="8">
         <v>84.3</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999943</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
@@ -43895,7 +44238,10 @@
       <c r="D66" s="8">
         <v>78.2</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.8999999999999915</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
@@ -43907,7 +44253,10 @@
       <c r="D67" s="8">
         <v>80</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999972</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
@@ -43919,7 +44268,10 @@
       <c r="D68" s="8">
         <v>74.8</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.9000000000000057</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
@@ -43931,7 +44283,10 @@
       <c r="D69" s="8">
         <v>78.5</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000057</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
@@ -43943,7 +44298,10 @@
       <c r="D70" s="8">
         <v>71.8</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999915</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
@@ -43955,7 +44313,10 @@
       <c r="D71" s="8">
         <v>69.900000000000006</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8">
+        <f t="shared" ref="E71:E100" si="1">D71-C71</f>
+        <v>-0.19999999999998863</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
@@ -43967,7 +44328,10 @@
       <c r="D72" s="8">
         <v>82.7</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000057</v>
+      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
@@ -43979,7 +44343,10 @@
       <c r="D73" s="8">
         <v>74</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999972</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="8">
@@ -43991,7 +44358,10 @@
       <c r="D74" s="8">
         <v>84</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999972</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="8">
@@ -44003,7 +44373,10 @@
       <c r="D75" s="8">
         <v>84.7</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="8">
@@ -44015,7 +44388,10 @@
       <c r="D76" s="8">
         <v>78.2</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8">
+        <f t="shared" si="1"/>
+        <v>7.7999999999999972</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
@@ -44027,7 +44403,10 @@
       <c r="D77" s="8">
         <v>85</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="8">
+        <f t="shared" si="1"/>
+        <v>16.700000000000003</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
@@ -44039,7 +44418,10 @@
       <c r="D78" s="8">
         <v>80.099999999999994</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999915</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
@@ -44051,7 +44433,10 @@
       <c r="D79" s="8">
         <v>85.3</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8">
+        <f t="shared" si="1"/>
+        <v>14.399999999999991</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
@@ -44063,7 +44448,10 @@
       <c r="D80" s="8">
         <v>79.7</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8">
+        <f t="shared" si="1"/>
+        <v>13.400000000000006</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
@@ -44075,7 +44463,10 @@
       <c r="D81" s="8">
         <v>79.599999999999994</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="8">
+        <f t="shared" si="1"/>
+        <v>14.299999999999997</v>
+      </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
@@ -44087,7 +44478,10 @@
       <c r="D82" s="8">
         <v>78.900000000000006</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000028</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
@@ -44099,7 +44493,10 @@
       <c r="D83" s="8">
         <v>78.5</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="8">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
@@ -44111,7 +44508,10 @@
       <c r="D84" s="8">
         <v>72</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8">
+        <f t="shared" si="1"/>
+        <v>-6.9000000000000057</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
@@ -44123,7 +44523,10 @@
       <c r="D85" s="8">
         <v>74.2</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
@@ -44135,7 +44538,10 @@
       <c r="D86" s="8">
         <v>71.7</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.8999999999999915</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
@@ -44147,7 +44553,10 @@
       <c r="D87" s="8">
         <v>80.7</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000057</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
@@ -44159,7 +44568,10 @@
       <c r="D88" s="8">
         <v>84.1</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="8">
@@ -44171,7 +44583,10 @@
       <c r="D89" s="8">
         <v>87.4</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.3999999999999915</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="8">
@@ -44183,7 +44598,10 @@
       <c r="D90" s="8">
         <v>77.400000000000006</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8">
+        <f t="shared" si="1"/>
+        <v>11.400000000000006</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="8">
@@ -44195,7 +44613,10 @@
       <c r="D91" s="8">
         <v>84.7</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999972</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
@@ -44207,7 +44628,10 @@
       <c r="D92" s="8">
         <v>78.8</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8">
+        <f t="shared" si="1"/>
+        <v>-21.200000000000003</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
@@ -44219,7 +44643,10 @@
       <c r="D93" s="8">
         <v>92.7</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="8">
+        <f t="shared" si="1"/>
+        <v>17.100000000000009</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
@@ -44231,7 +44658,10 @@
       <c r="D94" s="8">
         <v>88.8</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8">
+        <f t="shared" si="1"/>
+        <v>21.299999999999997</v>
+      </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
@@ -44243,7 +44673,10 @@
       <c r="D95" s="8">
         <v>86.6</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>17.899999999999991</v>
+      </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
@@ -44255,7 +44688,10 @@
       <c r="D96" s="8">
         <v>77.900000000000006</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000057</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
@@ -44267,7 +44703,10 @@
       <c r="D97" s="8">
         <v>86.1</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="8">
+        <f t="shared" si="1"/>
+        <v>18.399999999999991</v>
+      </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="8">
@@ -44279,7 +44718,10 @@
       <c r="D98" s="8">
         <v>89.9</v>
       </c>
-      <c r="E98" s="8"/>
+      <c r="E98" s="8">
+        <f t="shared" si="1"/>
+        <v>14.600000000000009</v>
+      </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="8">
@@ -44291,7 +44733,10 @@
       <c r="D99" s="8">
         <v>83.1</v>
       </c>
-      <c r="E99" s="8"/>
+      <c r="E99" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="8">
@@ -44303,7 +44748,10 @@
       <c r="D100" s="8">
         <v>82.6</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="8">
+        <f t="shared" si="1"/>
+        <v>19.299999999999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -44323,8 +44771,8 @@
   </sheetPr>
   <dimension ref="B1:N100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44400,19 +44848,30 @@
       <c r="D6" s="8">
         <v>276</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>24</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="71">
+        <f>COUNT(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="82"/>
+      <c r="K6" s="82">
+        <v>0.9</v>
+      </c>
       <c r="M6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="N6" s="72">
+        <f>H7-K11</f>
+        <v>44.388289333700001</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -44424,19 +44883,31 @@
       <c r="D7" s="8">
         <v>410</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E70" si="0">D7-C7</f>
+        <v>-13</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="72">
+        <f>AVERAGE(E6:E100)</f>
+        <v>49.442105263157892</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="82">
+        <f>1-K6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="M7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="72">
+        <f>H7+K11</f>
+        <v>54.495921192615782</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -44448,15 +44919,24 @@
       <c r="D8" s="8">
         <v>119</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="G8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="75">
+        <f>_xlfn.STDEV.S(E6:E100)</f>
+        <v>29.655007753875548</v>
+      </c>
       <c r="J8" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="75"/>
+        <v>143</v>
+      </c>
+      <c r="K8" s="75">
+        <f>K7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -44468,7 +44948,17 @@
       <c r="D9" s="8">
         <v>334</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="75">
+        <f>_xlfn.T.INV(1-K8,H6)</f>
+        <v>1.6610518172772404</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -44480,7 +44970,17 @@
       <c r="D10" s="8">
         <v>252</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="75">
+        <f>H8/SQRT(H6)</f>
+        <v>3.0425395986393706</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -44492,8 +44992,17 @@
       <c r="D11" s="8">
         <v>209</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="75">
+        <f>K9*K10</f>
+        <v>5.0538159294578922</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -44505,7 +45014,10 @@
       <c r="D12" s="8">
         <v>462</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -44517,7 +45029,10 @@
       <c r="D13" s="8">
         <v>342</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
@@ -44529,7 +45044,10 @@
       <c r="D14" s="8">
         <v>347</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
@@ -44541,7 +45059,10 @@
       <c r="D15" s="8">
         <v>313</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
@@ -44553,7 +45074,11 @@
       <c r="D16" s="8">
         <v>232</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
@@ -44565,7 +45090,10 @@
       <c r="D17" s="8">
         <v>163</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
@@ -44577,7 +45105,10 @@
       <c r="D18" s="8">
         <v>119</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
@@ -44589,7 +45120,10 @@
       <c r="D19" s="8">
         <v>304</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
@@ -44601,7 +45135,10 @@
       <c r="D20" s="8">
         <v>211</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
@@ -44613,7 +45150,10 @@
       <c r="D21" s="8">
         <v>286</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
@@ -44625,7 +45165,10 @@
       <c r="D22" s="8">
         <v>122</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
@@ -44637,7 +45180,10 @@
       <c r="D23" s="8">
         <v>443</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
@@ -44649,7 +45195,10 @@
       <c r="D24" s="8">
         <v>366</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
@@ -44661,7 +45210,10 @@
       <c r="D25" s="8">
         <v>244</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -44673,7 +45225,10 @@
       <c r="D26" s="8">
         <v>241</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
@@ -44685,7 +45240,10 @@
       <c r="D27" s="8">
         <v>237</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
@@ -44697,7 +45255,10 @@
       <c r="D28" s="8">
         <v>122</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
@@ -44709,7 +45270,10 @@
       <c r="D29" s="8">
         <v>129</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
@@ -44721,7 +45285,10 @@
       <c r="D30" s="8">
         <v>236</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -44733,7 +45300,10 @@
       <c r="D31" s="8">
         <v>251</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
@@ -44745,7 +45315,10 @@
       <c r="D32" s="8">
         <v>283</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
@@ -44757,7 +45330,10 @@
       <c r="D33" s="8">
         <v>225</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
@@ -44769,7 +45345,10 @@
       <c r="D34" s="8">
         <v>102</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
@@ -44781,7 +45360,10 @@
       <c r="D35" s="8">
         <v>180</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
@@ -44793,7 +45375,10 @@
       <c r="D36" s="8">
         <v>247</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
@@ -44805,7 +45390,10 @@
       <c r="D37" s="8">
         <v>343</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
@@ -44817,7 +45405,10 @@
       <c r="D38" s="8">
         <v>283</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
@@ -44829,7 +45420,10 @@
       <c r="D39" s="8">
         <v>253</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
@@ -44841,7 +45435,10 @@
       <c r="D40" s="8">
         <v>263</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
@@ -44853,7 +45450,10 @@
       <c r="D41" s="8">
         <v>291</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
@@ -44865,7 +45465,10 @@
       <c r="D42" s="8">
         <v>368</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
@@ -44877,7 +45480,10 @@
       <c r="D43" s="8">
         <v>206</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
@@ -44889,7 +45495,10 @@
       <c r="D44" s="8">
         <v>231</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
@@ -44901,7 +45510,10 @@
       <c r="D45" s="8">
         <v>389</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
@@ -44913,7 +45525,10 @@
       <c r="D46" s="8">
         <v>396</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
@@ -44925,7 +45540,10 @@
       <c r="D47" s="8">
         <v>339</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
@@ -44937,7 +45555,10 @@
       <c r="D48" s="8">
         <v>286</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
@@ -44949,7 +45570,10 @@
       <c r="D49" s="8">
         <v>146</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
@@ -44961,7 +45585,10 @@
       <c r="D50" s="8">
         <v>315</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
@@ -44973,7 +45600,10 @@
       <c r="D51" s="8">
         <v>183</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
@@ -44985,7 +45615,10 @@
       <c r="D52" s="8">
         <v>481</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
@@ -44997,7 +45630,10 @@
       <c r="D53" s="8">
         <v>349</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
@@ -45009,7 +45645,10 @@
       <c r="D54" s="8">
         <v>225</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
@@ -45021,7 +45660,10 @@
       <c r="D55" s="8">
         <v>217</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
@@ -45033,7 +45675,10 @@
       <c r="D56" s="8">
         <v>353</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
@@ -45045,7 +45690,10 @@
       <c r="D57" s="8">
         <v>314</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
@@ -45057,7 +45705,10 @@
       <c r="D58" s="8">
         <v>247</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
@@ -45069,7 +45720,10 @@
       <c r="D59" s="8">
         <v>410</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
@@ -45081,7 +45735,10 @@
       <c r="D60" s="8">
         <v>395</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
@@ -45093,7 +45750,10 @@
       <c r="D61" s="8">
         <v>416</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
@@ -45105,7 +45765,10 @@
       <c r="D62" s="8">
         <v>342</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
@@ -45117,7 +45780,10 @@
       <c r="D63" s="8">
         <v>446</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
@@ -45129,7 +45795,10 @@
       <c r="D64" s="8">
         <v>477</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
@@ -45141,7 +45810,10 @@
       <c r="D65" s="8">
         <v>444</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
@@ -45153,7 +45825,10 @@
       <c r="D66" s="8">
         <v>351</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
@@ -45165,7 +45840,10 @@
       <c r="D67" s="8">
         <v>165</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
@@ -45177,7 +45855,10 @@
       <c r="D68" s="8">
         <v>317</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
@@ -45189,7 +45870,10 @@
       <c r="D69" s="8">
         <v>250</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
@@ -45201,7 +45885,10 @@
       <c r="D70" s="8">
         <v>217</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
@@ -45213,7 +45900,10 @@
       <c r="D71" s="8">
         <v>138</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8">
+        <f t="shared" ref="E71:E100" si="1">D71-C71</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
@@ -45225,7 +45915,10 @@
       <c r="D72" s="8">
         <v>302</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
@@ -45237,7 +45930,10 @@
       <c r="D73" s="8">
         <v>311</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="8">
@@ -45249,7 +45945,10 @@
       <c r="D74" s="8">
         <v>373</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="8">
@@ -45261,7 +45960,10 @@
       <c r="D75" s="8">
         <v>196</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="8">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="8">
@@ -45273,7 +45975,10 @@
       <c r="D76" s="8">
         <v>306</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
@@ -45285,7 +45990,10 @@
       <c r="D77" s="8">
         <v>302</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
@@ -45297,7 +46005,10 @@
       <c r="D78" s="8">
         <v>278</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="8">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
@@ -45309,7 +46020,10 @@
       <c r="D79" s="8">
         <v>429</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
@@ -45321,7 +46035,10 @@
       <c r="D80" s="8">
         <v>338</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
@@ -45333,7 +46050,10 @@
       <c r="D81" s="8">
         <v>261</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
@@ -45345,7 +46065,10 @@
       <c r="D82" s="8">
         <v>256</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
@@ -45357,7 +46080,10 @@
       <c r="D83" s="8">
         <v>183</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
@@ -45369,7 +46095,10 @@
       <c r="D84" s="8">
         <v>274</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
@@ -45381,7 +46110,10 @@
       <c r="D85" s="8">
         <v>182</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
@@ -45393,7 +46125,10 @@
       <c r="D86" s="8">
         <v>183</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
@@ -45405,7 +46140,10 @@
       <c r="D87" s="8">
         <v>309</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
@@ -45417,7 +46155,10 @@
       <c r="D88" s="8">
         <v>178</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="8">
@@ -45429,7 +46170,10 @@
       <c r="D89" s="8">
         <v>458</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="8">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="8">
@@ -45441,7 +46185,10 @@
       <c r="D90" s="8">
         <v>234</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="8">
@@ -45453,7 +46200,10 @@
       <c r="D91" s="8">
         <v>306</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
@@ -45465,7 +46215,10 @@
       <c r="D92" s="8">
         <v>400</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
@@ -45477,7 +46230,10 @@
       <c r="D93" s="8">
         <v>337</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
@@ -45489,7 +46245,10 @@
       <c r="D94" s="8">
         <v>325</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
@@ -45501,7 +46260,10 @@
       <c r="D95" s="8">
         <v>329</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
@@ -45513,7 +46275,10 @@
       <c r="D96" s="8">
         <v>369</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
@@ -45525,7 +46290,10 @@
       <c r="D97" s="8">
         <v>457</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="8">
@@ -45537,7 +46305,10 @@
       <c r="D98" s="8">
         <v>421</v>
       </c>
-      <c r="E98" s="8"/>
+      <c r="E98" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="8">
@@ -45549,7 +46320,10 @@
       <c r="D99" s="8">
         <v>282</v>
       </c>
-      <c r="E99" s="8"/>
+      <c r="E99" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="8">
@@ -45561,7 +46335,10 @@
       <c r="D100" s="8">
         <v>256</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7B019-A21B-1049-8DA0-DEDAD8032077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0D96B-7194-E741-96FE-C5461BD66F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="27" activeTab="33" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="33" activeTab="36" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -44771,7 +44771,7 @@
   </sheetPr>
   <dimension ref="B1:N100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -46359,7 +46359,7 @@
   <dimension ref="B1:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46443,15 +46443,23 @@
       <c r="J6" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="72">
+        <f>G9-H9</f>
+        <v>1.8650659133709979</v>
+      </c>
       <c r="M6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="77">
+        <v>0.9</v>
+      </c>
       <c r="P6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="72"/>
+      <c r="Q6" s="72">
+        <f>K6-N12</f>
+        <v>-0.39955679893334928</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -46463,16 +46471,28 @@
       <c r="F7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="G7" s="71">
+        <f>COUNT(B6:B41)</f>
+        <v>36</v>
+      </c>
+      <c r="H7" s="71">
+        <f>COUNT(D6:D64)</f>
+        <v>59</v>
+      </c>
       <c r="M7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="82"/>
+      <c r="N7" s="82">
+        <f>1-N6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="P7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="72"/>
+      <c r="Q7" s="72">
+        <f>K6+N12</f>
+        <v>4.1296886256753451</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -46484,12 +46504,21 @@
       <c r="F8" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="G8" s="71">
+        <f>G7-1</f>
+        <v>35</v>
+      </c>
+      <c r="H8" s="71">
+        <f>H7-1</f>
+        <v>58</v>
+      </c>
       <c r="M8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="71">
+        <f>N7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -46501,12 +46530,21 @@
       <c r="F9" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="G9" s="72">
+        <f>AVERAGE(B6:B41)</f>
+        <v>81.327777777777783</v>
+      </c>
+      <c r="H9" s="72">
+        <f>AVERAGE(D6:D64)</f>
+        <v>79.462711864406785</v>
+      </c>
       <c r="M9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="N9" s="75"/>
+      <c r="N9" s="75">
+        <f>(G11+H11)^2/(G11^2/G8+H11^2/H8)</f>
+        <v>66.234134266561668</v>
+      </c>
     </row>
     <row r="10" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -46518,12 +46556,21 @@
       <c r="F10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
+      <c r="G10" s="75">
+        <f>_xlfn.VAR.S(B6:B41)</f>
+        <v>44.135206349206364</v>
+      </c>
+      <c r="H10" s="75">
+        <f>_xlfn.VAR.S(D6:D64)</f>
+        <v>33.739275277615427</v>
+      </c>
       <c r="M10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="70"/>
+      <c r="N10" s="70">
+        <f>_xlfn.T.INV(1-N8,N9)</f>
+        <v>1.6682705142276302</v>
+      </c>
     </row>
     <row r="11" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -46535,12 +46582,21 @@
       <c r="F11" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
+      <c r="G11" s="70">
+        <f>G10/G8</f>
+        <v>1.2610058956916104</v>
+      </c>
+      <c r="H11" s="70">
+        <f>H10/H8</f>
+        <v>0.5817116427175073</v>
+      </c>
       <c r="M11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="75"/>
+      <c r="N11" s="75">
+        <f>SQRT(G11+H11)</f>
+        <v>1.3574673249876468</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -46552,7 +46608,10 @@
       <c r="M12" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="75"/>
+      <c r="N12" s="75">
+        <f>N11*N10</f>
+        <v>2.2646227123043472</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -46921,7 +46980,7 @@
   <dimension ref="B1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47004,15 +47063,23 @@
       <c r="I6" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="73"/>
+      <c r="J6" s="73">
+        <f>F9-G9</f>
+        <v>70.528301886792462</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="77">
+        <v>0.9</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="73">
+        <f>J6-M12</f>
+        <v>40.555836759906974</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -47024,16 +47091,28 @@
       <c r="E7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="71">
+        <f>COUNTIFS(B6:B100,"Placed")</f>
+        <v>53</v>
+      </c>
+      <c r="G7" s="71">
+        <f>COUNTIFS(B6:B100,"Not Placed")</f>
+        <v>42</v>
+      </c>
       <c r="L7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="82"/>
+      <c r="M7" s="82">
+        <f>1-M6</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
       <c r="O7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="73"/>
+      <c r="P7" s="73">
+        <f>J6+M12</f>
+        <v>100.50076701367794</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -47045,12 +47124,21 @@
       <c r="E8" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="71">
+        <f>F7-1</f>
+        <v>52</v>
+      </c>
+      <c r="G8" s="71">
+        <f>G7-1</f>
+        <v>41</v>
+      </c>
       <c r="L8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="71">
+        <f>M7/2</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -47062,12 +47150,21 @@
       <c r="E9" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="73">
+        <f>AVERAGEIFS($C$6:$C$100,$B$6:$B$100,F6)</f>
+        <v>320.52830188679246</v>
+      </c>
+      <c r="G9" s="73">
+        <f>AVERAGEIFS($C$6:$C$100,$B$6:$B$100,G6)</f>
+        <v>250</v>
+      </c>
       <c r="L9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="75"/>
+      <c r="M9" s="75">
+        <f>(F11+G11)^2/(F11^2/F8+G11^2/G8)</f>
+        <v>87.464124652300455</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -47079,12 +47176,21 @@
       <c r="E10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="74" cm="1">
+        <f t="array" ref="F10">_xlfn.VAR.S(IF($B$6:$B$100=F6,$C$6:$C$100))</f>
+        <v>7479.7924528301946</v>
+      </c>
+      <c r="G10" s="74" cm="1">
+        <f t="array" ref="G10">_xlfn.VAR.S(IF($B$6:$B$100=G6,$C$6:$C$100))</f>
+        <v>7722.8780487804879</v>
+      </c>
       <c r="L10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="70">
+        <f>_xlfn.T.INV(1-M8,M9)</f>
+        <v>1.662557349412876</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -47096,12 +47202,21 @@
       <c r="E11" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="F11" s="70">
+        <f>F10/F7</f>
+        <v>141.12815948736215</v>
+      </c>
+      <c r="G11" s="70">
+        <f>G10/G7</f>
+        <v>183.8780487804878</v>
+      </c>
       <c r="L11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="75"/>
+      <c r="M11" s="75">
+        <f>SQRT(F11+G11)</f>
+        <v>18.027928562867391</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -47113,7 +47228,10 @@
       <c r="L12" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="M12" s="75"/>
+      <c r="M12" s="75">
+        <f>M11*M10</f>
+        <v>29.972465126885488</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
@@ -47838,8 +47956,8 @@
   </sheetPr>
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47922,15 +48040,23 @@
       <c r="I6" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="70">
+        <f>F8-G8</f>
+        <v>0.23913043478260865</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="77"/>
+      <c r="M6" s="77">
+        <v>0.99</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="88"/>
+      <c r="P6" s="88">
+        <f>J6-M11</f>
+        <v>-4.1334137258359216E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -47942,16 +48068,28 @@
       <c r="E7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="71">
+        <f>COUNTIFS($B$6:$B$100,F6)</f>
+        <v>23</v>
+      </c>
+      <c r="G7" s="71">
+        <f>COUNTIFS($B$6:$B$100,G6)</f>
+        <v>72</v>
+      </c>
       <c r="L7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="82"/>
+      <c r="M7" s="82">
+        <f>1-M6</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
       <c r="O7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="88"/>
+      <c r="P7" s="88">
+        <f>J6+M11</f>
+        <v>0.51959500682357651</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -47963,12 +48101,21 @@
       <c r="E8" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="F8" s="70">
+        <f>COUNTIFS($B$6:$B$100,F6,$C$6:$C$100,"Placed")/F7</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="G8" s="70">
+        <f>COUNTIFS($B$6:$B$100,G6,$C$6:$C$100,"Placed")/G7</f>
+        <v>0.5</v>
+      </c>
       <c r="L8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="71">
+        <f>M7/2</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -47980,12 +48127,21 @@
       <c r="E9" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="F9" s="70">
+        <f>1-F8</f>
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="G9" s="70">
+        <f>1-G8</f>
+        <v>0.5</v>
+      </c>
       <c r="L9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="70">
+        <f>_xlfn.NORM.S.INV(1-M8)</f>
+        <v>2.5758293035488999</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -48000,7 +48156,10 @@
       <c r="L10" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="70">
+        <f>SQRT(SUM(F8*F9/F7,G8*G9/G7))</f>
+        <v>0.10888321351673119</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -48017,7 +48176,10 @@
       <c r="L11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="70"/>
+      <c r="M11" s="70">
+        <f>M10*M9</f>
+        <v>0.28046457204096786</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -48029,8 +48191,14 @@
       <c r="E12" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="71">
+        <f>F8*F7</f>
+        <v>17</v>
+      </c>
+      <c r="G12" s="71">
+        <f>G8*G7</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
@@ -48042,8 +48210,14 @@
       <c r="E13" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="71">
+        <f>F9*F7</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="G13" s="71">
+        <f>G9*G7</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0D96B-7194-E741-96FE-C5461BD66F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED059F4-C517-E046-904F-EAE47F6AE7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="33" activeTab="36" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="32" activeTab="36" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -41897,7 +41897,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D10" sqref="D10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46359,7 +46359,7 @@
   <dimension ref="B1:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F5" sqref="F5:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46980,7 +46980,7 @@
   <dimension ref="B1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47957,7 +47957,7 @@
   <dimension ref="B1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED059F4-C517-E046-904F-EAE47F6AE7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F0229-B311-7949-87B9-08D85527151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="32" activeTab="36" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="37" activeTab="40" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="333">
   <si>
     <t>DESCRIPTIVE STATISTICS</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>This is the emperical rule that says 68% of value live 1 STA DIV away from the mean</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -47956,7 +47959,7 @@
   </sheetPr>
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -48936,7 +48939,7 @@
   <dimension ref="B1:G100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48980,9 +48983,15 @@
       <c r="D6" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="E6" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="90">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -48991,9 +49000,15 @@
       <c r="D7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
+      <c r="E7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="90">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -49493,7 +49508,7 @@
   <dimension ref="B1:J100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49554,7 +49569,9 @@
       <c r="I6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="71">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -50691,7 +50708,7 @@
   <dimension ref="B1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50775,11 +50792,17 @@
       <c r="L6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="71">
+        <f>COUNT(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="75">
+        <f>M8/SQRT(M6)</f>
+        <v>9.5950571497434378</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -50802,11 +50825,17 @@
       <c r="L7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="72"/>
+      <c r="M7" s="72">
+        <f>AVERAGE(B6:B100)</f>
+        <v>289.34736842105264</v>
+      </c>
       <c r="O7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="91"/>
+      <c r="P7" s="91">
+        <f>(M7-G6)/P6</f>
+        <v>-1.1102207535295614</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -50819,7 +50848,10 @@
       <c r="L8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="75"/>
+      <c r="M8" s="75">
+        <f>STDEV(B6:B100)</f>
+        <v>93.521048765238149</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -51313,8 +51345,8 @@
   </sheetPr>
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51461,7 +51493,10 @@
       <c r="O8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="70"/>
+      <c r="P8" s="70">
+        <f>_xlfn.T.DIST(P7,M6,TRUE)*2</f>
+        <v>0.26970617191487284</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8">

--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Excel_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F0229-B311-7949-87B9-08D85527151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED79E0F-8118-5B4B-9E89-CCAEE02419F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="20140" firstSheet="37" activeTab="40" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" firstSheet="42" activeTab="46" xr2:uid="{DBB1C2DB-5775-4DD4-8093-368BA7E7FA97}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="339">
   <si>
     <t>DESCRIPTIVE STATISTICS</t>
   </si>
@@ -1347,6 +1347,24 @@
   <si>
     <t>&lt;&gt;</t>
   </si>
+  <si>
+    <t>Since p&gt;a , we don’t have sufficient evidence to prove that the average employability scores are any different 300---We can keep stating the same average in our communications, keeping in mind that there is a 10% chance that we're wrong!</t>
+  </si>
+  <si>
+    <t>Since p&gt;a, we don’t have sufficient evidence to prove that the average MBA grades are any different than 80. ---- With the 20% significance level we should stick with the current curriculum!</t>
+  </si>
+  <si>
+    <t>Since p&lt;a , we have sufficient evidence to prove that the average employability scores for placed graduates are greater than 300. ----- We should use this as a target, especially sincewe estimated that our program improves scores bt at least 41 points on average.</t>
+  </si>
+  <si>
+    <t>We have sufficient evidence to prove that the proportion of placed graduates that earn at least $100k is greater than 50% ---- Lets get that article published ! (Just make sure that state that we used a significance level of 5% somewhere in the fine print)</t>
+  </si>
+  <si>
+    <t>Since p&gt;a , we don’t have sufficient evidence to proce that the average improvement in employability scores is lower than 50. --- Lets keep using that number!</t>
+  </si>
+  <si>
+    <t>Since p&gt;a we don’t have sufficient evidence to prove that graduates with previous work experience earn more money. ---- No need to filter our applicants!</t>
+  </si>
 </sst>
 </file>
 
@@ -1364,9 +1382,16 @@
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
     <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1739,51 +1764,51 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1795,16 +1820,16 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1813,18 +1838,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1836,30 +1861,30 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1868,32 +1893,32 @@
     <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1956,32 +1981,29 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1998,36 +2020,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20285,7 +20316,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1944561</xdr:colOff>
+      <xdr:colOff>1817561</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>90846</xdr:rowOff>
     </xdr:to>
@@ -20416,8 +20447,8 @@
       <xdr:rowOff>129349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>7830</xdr:rowOff>
     </xdr:to>
@@ -26400,11 +26431,11 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -27258,16 +27289,16 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="I5" s="115" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="I5" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -29022,13 +29053,13 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="114"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -30244,11 +30275,11 @@
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -31110,11 +31141,11 @@
       <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -31186,7 +31217,7 @@
         <f t="array" ref="G9">_xlfn.QUARTILE.INC(IF($B$6:$B$100=G6,$C$6:$C$100),3)-_xlfn.QUARTILE.INC(IF($B$6:$B$100=G6,$C$6:$C$100),1)</f>
         <v>8.3999999999999773</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -31989,14 +32020,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -32612,14 +32643,14 @@
       <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -33474,16 +33505,16 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -34098,20 +34129,20 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -34518,26 +34549,26 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="E2" s="110" t="s">
+      <c r="C2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="H2" s="111" t="s">
+      <c r="F2" s="109"/>
+      <c r="H2" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="K2" s="112" t="s">
+      <c r="I2" s="110"/>
+      <c r="K2" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="N2" s="113" t="s">
+      <c r="L2" s="111"/>
+      <c r="N2" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="113"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -35064,14 +35095,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -35628,10 +35659,10 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -36183,14 +36214,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -36749,10 +36780,10 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="113"/>
       <c r="G5" s="10" t="s">
         <v>99</v>
       </c>
@@ -37535,14 +37566,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -38115,14 +38146,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -38686,14 +38717,14 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -39264,18 +39295,18 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -39344,10 +39375,10 @@
       <c r="B9" s="8">
         <v>334</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="114"/>
+      <c r="E9" s="113"/>
       <c r="G9" s="20" t="s">
         <v>151</v>
       </c>
@@ -39895,18 +39926,18 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -39977,10 +40008,10 @@
       <c r="B9" s="12">
         <v>148000</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="114"/>
+      <c r="E9" s="113"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
@@ -40260,7 +40291,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40301,18 +40332,18 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -40962,13 +40993,13 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>14</v>
       </c>
       <c r="E6">
         <v>42</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="101">
         <v>0.44210526315789472</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -40993,13 +41024,13 @@
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>13</v>
       </c>
       <c r="E7">
         <v>53</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="101">
         <v>0.55789473684210522</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -41021,13 +41052,13 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E8">
         <v>95</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="101">
         <v>1</v>
       </c>
     </row>
@@ -41546,18 +41577,18 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -41638,7 +41669,7 @@
       <c r="B10" s="12">
         <v>255500</v>
       </c>
-      <c r="H10" s="98"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
@@ -41900,7 +41931,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41941,18 +41972,18 @@
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -42040,10 +42071,10 @@
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="113"/>
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
@@ -42544,7 +42575,7 @@
   <dimension ref="B1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42585,18 +42616,18 @@
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="114" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -42684,10 +42715,10 @@
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="113"/>
       <c r="G10" s="20" t="s">
         <v>145</v>
       </c>
@@ -43242,18 +43273,18 @@
       <c r="E5" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="113"/>
+      <c r="M5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="114"/>
+      <c r="N5" s="113"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -44828,18 +44859,18 @@
       <c r="E5" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="113"/>
+      <c r="M5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="114"/>
+      <c r="N5" s="113"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -46362,7 +46393,7 @@
   <dimension ref="B1:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:Q12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46412,23 +46443,23 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="113"/>
+      <c r="M5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="P5" s="114" t="s">
+      <c r="N5" s="113"/>
+      <c r="P5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="2:17" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
@@ -47032,23 +47063,23 @@
       <c r="C5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="I5" s="114" t="s">
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="I5" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="113"/>
+      <c r="L5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -48009,23 +48040,23 @@
       <c r="C5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="I5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="I5" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="113"/>
+      <c r="L5" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -48171,11 +48202,11 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
       <c r="L11" s="20" t="s">
         <v>149</v>
       </c>
@@ -48969,12 +49000,12 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -49539,16 +49570,16 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="116"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -50134,7 +50165,7 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="102" t="s">
         <v>327</v>
       </c>
       <c r="H5" s="66" t="s">
@@ -50152,13 +50183,13 @@
         <v>111</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>318</v>
       </c>
       <c r="E6">
         <v>22</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="101">
         <v>0.41509433962264153</v>
       </c>
       <c r="H6" s="68">
@@ -50178,13 +50209,13 @@
         <v>107</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>319</v>
       </c>
       <c r="E7">
         <v>11</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="101">
         <v>0.62264150943396224</v>
       </c>
       <c r="H7" s="68">
@@ -50203,13 +50234,13 @@
         <v>109</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="100" t="s">
         <v>326</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="101">
         <v>0.79245283018867929</v>
       </c>
       <c r="H8" s="68">
@@ -50228,13 +50259,13 @@
         <v>148</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="100" t="s">
         <v>320</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="101">
         <v>0.86792452830188682</v>
       </c>
       <c r="H9" s="68">
@@ -50253,13 +50284,13 @@
         <v>255.5</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="100" t="s">
         <v>321</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="101">
         <v>0.92452830188679247</v>
       </c>
       <c r="H10" s="68">
@@ -50278,13 +50309,13 @@
         <v>103.5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="100" t="s">
         <v>322</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="101">
         <v>0.94339622641509435</v>
       </c>
       <c r="H11" s="68">
@@ -50303,13 +50334,13 @@
         <v>114.5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="100" t="s">
         <v>325</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="101">
         <v>0.96226415094339623</v>
       </c>
       <c r="H12" s="68">
@@ -50328,13 +50359,13 @@
         <v>124</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="100" t="s">
         <v>324</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="101">
         <v>0.98113207547169812</v>
       </c>
       <c r="H13" s="68">
@@ -50353,13 +50384,13 @@
         <v>132.5</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="100" t="s">
         <v>323</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="101">
         <v>1</v>
       </c>
       <c r="H14" s="68">
@@ -50378,13 +50409,13 @@
         <v>99</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E15">
         <v>53</v>
       </c>
-      <c r="F15" s="102"/>
+      <c r="F15" s="101"/>
       <c r="H15" s="68">
         <v>270</v>
       </c>
@@ -50748,24 +50779,24 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="115"/>
+      <c r="L5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -51345,7 +51376,7 @@
   </sheetPr>
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -51386,24 +51417,24 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="115"/>
+      <c r="L5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -51991,7 +52022,7 @@
   <dimension ref="B1:R100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52032,24 +52063,24 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="115"/>
+      <c r="L5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
       <c r="R5" s="50" t="s">
         <v>202</v>
       </c>
@@ -52090,7 +52121,9 @@
         <f>M8/SQRT(M6)</f>
         <v>9.5950571497434378</v>
       </c>
-      <c r="R6" s="117"/>
+      <c r="R6" s="116" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -52124,7 +52157,7 @@
         <f>(M7-G6)/P6</f>
         <v>-1.1102207535295614</v>
       </c>
-      <c r="R7" s="117"/>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -52148,7 +52181,7 @@
         <f>_xlfn.T.DIST(P7,M6-1,TRUE)*2</f>
         <v>0.26973589884432797</v>
       </c>
-      <c r="R8" s="117"/>
+      <c r="R8" s="116"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -52158,7 +52191,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="R9" s="117"/>
+      <c r="R9" s="116"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -52168,7 +52201,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="R10" s="117"/>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -52178,7 +52211,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="R11" s="117"/>
+      <c r="R11" s="116"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -52647,7 +52680,7 @@
   <dimension ref="B1:R100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52687,24 +52720,24 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="I5" s="116" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="L5" s="114" t="s">
+      <c r="J5" s="115"/>
+      <c r="L5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="113"/>
+      <c r="O5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
       <c r="R5" s="50" t="s">
         <v>202</v>
       </c>
@@ -52719,21 +52752,35 @@
       <c r="E6" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="F6" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="90">
+        <v>80</v>
+      </c>
       <c r="I6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="71"/>
+      <c r="J6" s="71">
+        <v>0.2</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="71">
+        <f>COUNT(B6:B100)</f>
+        <v>95</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="75"/>
-      <c r="R6" s="117"/>
+      <c r="P6" s="75">
+        <f>M8/SQRT(M6)</f>
+        <v>0.63310867376603175</v>
+      </c>
+      <c r="R6" s="116" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -52745,19 +52792,29 @@
       <c r="E7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
+      <c r="F7" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="90">
+        <v>80</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="L7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="72"/>
+      <c r="M7" s="72">
+        <f>AVERAGE(B6:B100)</f>
+        <v>80.169473684210516</v>
+      </c>
       <c r="O7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="R7" s="117"/>
+      <c r="P7" s="91">
+        <f>(M7-G6)/P6</f>
+        <v>0.26768498242553784</v>
+      </c>
+      <c r="R7" s="116"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -52770,12 +52827,18 @@
       <c r="L8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="75"/>
+      <c r="M8" s="75">
+        <f>STDEV(B6:B100)</f>
+        <v>6.1707800411122609</v>
+      </c>
       <c r="O8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="70"/>
-      <c r="R8" s="117"/>
+      <c r="P8" s="70">
+        <f>(1-_xlfn.T.DIST(P7,M6,TRUE))*2</f>
+        <v>0.78952212727916882</v>
+      </c>
+      <c r="R8" s="116"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -52785,7 +52848,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="R9" s="117"/>
+      <c r="R9" s="116"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -52795,7 +52858,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="R10" s="117"/>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -52805,7 +52868,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="R11" s="117"/>
+      <c r="R11" s="116"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -53285,7 +53348,7 @@
   <dimension ref="B1:V100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53330,24 +53393,24 @@
       <c r="C5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="J5" s="116" t="s">
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="J5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="116"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="115"/>
+      <c r="M5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="P5" s="114" t="s">
+      <c r="N5" s="113"/>
+      <c r="P5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="113"/>
       <c r="S5" s="50" t="s">
         <v>202</v>
       </c>
@@ -53371,21 +53434,35 @@
       <c r="F6" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="90">
+        <v>300</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="71">
+        <v>0.15</v>
+      </c>
       <c r="M6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="71">
+        <f>COUNTIFS(C6:C100,"Placed")</f>
+        <v>53</v>
+      </c>
       <c r="P6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="75"/>
-      <c r="S6" s="117"/>
+      <c r="Q6" s="75">
+        <f>N8/SQRT(N6)</f>
+        <v>11.879737349258281</v>
+      </c>
+      <c r="S6" s="117" t="s">
+        <v>335</v>
+      </c>
       <c r="U6" s="92" t="s">
         <v>310</v>
       </c>
@@ -53406,18 +53483,28 @@
       <c r="F7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="G7" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="90">
+        <v>300</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="1"/>
       <c r="M7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="72">
+        <f>AVERAGEIFS($B$6:$B$100,$C$6:$C$100,"Placed")</f>
+        <v>320.52830188679246</v>
+      </c>
       <c r="P7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="91"/>
+      <c r="Q7" s="91">
+        <f>(N7-H6)/Q6</f>
+        <v>1.728009743251955</v>
+      </c>
       <c r="S7" s="117"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
@@ -53434,11 +53521,17 @@
       <c r="M8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="75"/>
+      <c r="N8" s="75" cm="1">
+        <f t="array" ref="N8">_xlfn.STDEV.S(IF($C$6:$C$100="Placed",B6:B100))</f>
+        <v>86.485793358390339</v>
+      </c>
       <c r="P8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="Q8" s="70"/>
+      <c r="Q8" s="70">
+        <f>_xlfn.T.DIST.RT(Q7,N6)</f>
+        <v>4.4904773165032809E-2</v>
+      </c>
       <c r="S8" s="117"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
@@ -54222,7 +54315,7 @@
   <dimension ref="B1:V58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54233,8 +54326,10 @@
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="60.6640625" customWidth="1"/>
     <col min="21" max="22" width="9.1640625" hidden="1" customWidth="1"/>
   </cols>
@@ -54263,24 +54358,24 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="G5" s="116" t="s">
+      <c r="E5" s="113"/>
+      <c r="G5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="L5" s="116" t="s">
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="L5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="115"/>
+      <c r="O5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="114"/>
+      <c r="P5" s="113"/>
       <c r="R5" s="50" t="s">
         <v>202</v>
       </c>
@@ -54298,24 +54393,38 @@
       <c r="D6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="71">
+        <f>COUNT(B6:B58)</f>
+        <v>53</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>194</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="93"/>
+      <c r="I6" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="118">
+        <v>0.5</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="71">
+        <v>0.05</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="94"/>
-      <c r="R6" s="117"/>
+      <c r="P6" s="93">
+        <f>SQRT(E7*E8/E6)</f>
+        <v>6.5872243431592162E-2</v>
+      </c>
+      <c r="R6" s="116" t="s">
+        <v>336</v>
+      </c>
       <c r="U6" t="s">
         <v>208</v>
       </c>
@@ -54330,22 +54439,32 @@
       <c r="D7" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="87">
+        <f>COUNTIFS(B6:B58,"&gt;="&amp;100000)/E6</f>
+        <v>0.64150943396226412</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>195</v>
       </c>
       <c r="H7" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="93"/>
+      <c r="I7" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="118">
+        <v>0.5</v>
+      </c>
       <c r="L7" s="20"/>
       <c r="M7" s="1"/>
       <c r="O7" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="R7" s="117"/>
+      <c r="P7" s="91">
+        <f>(E7-J6)/P6</f>
+        <v>2.14824069426481</v>
+      </c>
+      <c r="R7" s="116"/>
       <c r="U7" t="s">
         <v>310</v>
       </c>
@@ -54360,7 +54479,10 @@
       <c r="D8" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="87">
+        <f>1-E7</f>
+        <v>0.35849056603773588</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -54368,8 +54490,11 @@
       <c r="O8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="70"/>
-      <c r="R8" s="117"/>
+      <c r="P8" s="70">
+        <f>1-_xlfn.NORM.S.DIST(P7,TRUE)</f>
+        <v>1.5847319730759257E-2</v>
+      </c>
+      <c r="R8" s="116"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
@@ -54379,21 +54504,21 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
-      <c r="R9" s="117"/>
+      <c r="R9" s="116"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <v>255500</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="113"/>
       <c r="G10" s="20"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="R10" s="117"/>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
@@ -54402,12 +54527,15 @@
       <c r="D11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="71">
+        <f>E7*E6</f>
+        <v>34</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="R11" s="117"/>
+      <c r="R11" s="116"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
@@ -54416,7 +54544,10 @@
       <c r="D12" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="71">
+        <f>E8*E6</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
@@ -54678,8 +54809,8 @@
   </sheetPr>
   <dimension ref="B1:X100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54733,24 +54864,24 @@
       <c r="E5" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="L5" s="116" t="s">
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="L5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="O5" s="114" t="s">
+      <c r="M5" s="115"/>
+      <c r="O5" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="114"/>
-      <c r="R5" s="114" t="s">
+      <c r="P5" s="113"/>
+      <c r="R5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="S5" s="114"/>
+      <c r="S5" s="113"/>
       <c r="U5" s="50" t="s">
         <v>202</v>
       </c>
@@ -54771,28 +54902,46 @@
       <c r="D6" s="8">
         <v>276</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>24</v>
+      </c>
       <c r="G6" s="20" t="s">
         <v>194</v>
       </c>
       <c r="H6" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
+      <c r="I6" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="J6" s="90">
+        <v>50</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="71"/>
+      <c r="M6" s="71">
+        <f>1-0.98</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="71"/>
+      <c r="P6" s="71">
+        <f>COUNT(E6:E100)</f>
+        <v>95</v>
+      </c>
       <c r="R6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="U6" s="117"/>
+      <c r="S6" s="75">
+        <f>P8/SQRT(P6)</f>
+        <v>3.0425395986393706</v>
+      </c>
+      <c r="U6" s="116" t="s">
+        <v>337</v>
+      </c>
       <c r="W6" t="s">
         <v>208</v>
       </c>
@@ -54810,26 +54959,39 @@
       <c r="D7" s="8">
         <v>410</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E70" si="0">D7-C7</f>
+        <v>-13</v>
+      </c>
       <c r="G7" s="20" t="s">
         <v>195</v>
       </c>
       <c r="H7" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
+      <c r="I7" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="90">
+        <v>50</v>
+      </c>
       <c r="L7" s="20"/>
       <c r="M7" s="1"/>
       <c r="O7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="72"/>
+      <c r="P7" s="72">
+        <f>AVERAGE(E6:E100)</f>
+        <v>49.442105263157892</v>
+      </c>
       <c r="R7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="S7" s="91"/>
-      <c r="U7" s="117"/>
+      <c r="S7" s="91">
+        <f>(P7-J6)/S6</f>
+        <v>-0.18336482361366796</v>
+      </c>
+      <c r="U7" s="116"/>
       <c r="W7" t="s">
         <v>310</v>
       </c>
@@ -54847,7 +55009,10 @@
       <c r="D8" s="8">
         <v>119</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -54855,12 +55020,18 @@
       <c r="O8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="75"/>
+      <c r="P8" s="75">
+        <f>_xlfn.STDEV.S(E6:E100)</f>
+        <v>29.655007753875548</v>
+      </c>
       <c r="R8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="U8" s="117"/>
+      <c r="S8" s="70">
+        <f>_xlfn.T.DIST(S7,P6-1,TRUE)</f>
+        <v>0.42745335670268647</v>
+      </c>
+      <c r="U8" s="116"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
@@ -54872,12 +55043,15 @@
       <c r="D9" s="8">
         <v>334</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
-      <c r="U9" s="117"/>
+      <c r="U9" s="116"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -54889,12 +55063,15 @@
       <c r="D10" s="8">
         <v>252</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="U10" s="117"/>
+      <c r="U10" s="116"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
@@ -54906,12 +55083,15 @@
       <c r="D11" s="8">
         <v>209</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="U11" s="117"/>
+      <c r="U11" s="116"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
@@ -54923,7 +55103,10 @@
       <c r="D12" s="8">
         <v>462</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -54935,7 +55118,10 @@
       <c r="D13" s="8">
         <v>342</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
@@ -54947,7 +55133,10 @@
       <c r="D14" s="8">
         <v>347</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
@@ -54959,7 +55148,10 @@
       <c r="D15" s="8">
         <v>313</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
@@ -54971,7 +55163,10 @@
       <c r="D16" s="8">
         <v>232</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
@@ -54983,7 +55178,10 @@
       <c r="D17" s="8">
         <v>163</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
@@ -54995,7 +55193,10 @@
       <c r="D18" s="8">
         <v>119</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
@@ -55007,7 +55208,10 @@
       <c r="D19" s="8">
         <v>304</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
@@ -55019,7 +55223,10 @@
       <c r="D20" s="8">
         <v>211</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
@@ -55031,7 +55238,10 @@
       <c r="D21" s="8">
         <v>286</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
@@ -55043,7 +55253,10 @@
       <c r="D22" s="8">
         <v>122</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
@@ -55055,7 +55268,10 @@
       <c r="D23" s="8">
         <v>443</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
@@ -55067,7 +55283,10 @@
       <c r="D24" s="8">
         <v>366</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
@@ -55079,7 +55298,10 @@
       <c r="D25" s="8">
         <v>244</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -55091,7 +55313,10 @@
       <c r="D26" s="8">
         <v>241</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
@@ -55103,7 +55328,10 @@
       <c r="D27" s="8">
         <v>237</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
@@ -55115,7 +55343,10 @@
       <c r="D28" s="8">
         <v>122</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
@@ -55127,7 +55358,10 @@
       <c r="D29" s="8">
         <v>129</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
@@ -55139,7 +55373,10 @@
       <c r="D30" s="8">
         <v>236</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -55151,7 +55388,10 @@
       <c r="D31" s="8">
         <v>251</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
@@ -55163,7 +55403,10 @@
       <c r="D32" s="8">
         <v>283</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
@@ -55175,7 +55418,10 @@
       <c r="D33" s="8">
         <v>225</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
@@ -55187,7 +55433,10 @@
       <c r="D34" s="8">
         <v>102</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
@@ -55199,7 +55448,10 @@
       <c r="D35" s="8">
         <v>180</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
@@ -55211,7 +55463,10 @@
       <c r="D36" s="8">
         <v>247</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
@@ -55223,7 +55478,10 @@
       <c r="D37" s="8">
         <v>343</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
@@ -55235,7 +55493,10 @@
       <c r="D38" s="8">
         <v>283</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
@@ -55247,7 +55508,10 @@
       <c r="D39" s="8">
         <v>253</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
@@ -55259,7 +55523,10 @@
       <c r="D40" s="8">
         <v>263</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
@@ -55271,7 +55538,10 @@
       <c r="D41" s="8">
         <v>291</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
@@ -55283,7 +55553,10 @@
       <c r="D42" s="8">
         <v>368</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
@@ -55295,7 +55568,10 @@
       <c r="D43" s="8">
         <v>206</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
@@ -55307,7 +55583,10 @@
       <c r="D44" s="8">
         <v>231</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
@@ -55319,7 +55598,10 @@
       <c r="D45" s="8">
         <v>389</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
@@ -55331,7 +55613,10 @@
       <c r="D46" s="8">
         <v>396</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
@@ -55343,7 +55628,10 @@
       <c r="D47" s="8">
         <v>339</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
@@ -55355,7 +55643,10 @@
       <c r="D48" s="8">
         <v>286</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
@@ -55367,7 +55658,10 @@
       <c r="D49" s="8">
         <v>146</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
@@ -55379,7 +55673,10 @@
       <c r="D50" s="8">
         <v>315</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
@@ -55391,7 +55688,10 @@
       <c r="D51" s="8">
         <v>183</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
@@ -55403,7 +55703,10 @@
       <c r="D52" s="8">
         <v>481</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="8">
@@ -55415,7 +55718,10 @@
       <c r="D53" s="8">
         <v>349</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="8">
@@ -55427,7 +55733,10 @@
       <c r="D54" s="8">
         <v>225</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="8">
@@ -55439,7 +55748,10 @@
       <c r="D55" s="8">
         <v>217</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="8">
@@ -55451,7 +55763,10 @@
       <c r="D56" s="8">
         <v>353</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="8">
@@ -55463,7 +55778,10 @@
       <c r="D57" s="8">
         <v>314</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="8">
@@ -55475,7 +55793,10 @@
       <c r="D58" s="8">
         <v>247</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="8">
@@ -55487,7 +55808,10 @@
       <c r="D59" s="8">
         <v>410</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="8">
@@ -55499,7 +55823,10 @@
       <c r="D60" s="8">
         <v>395</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="8">
@@ -55511,7 +55838,10 @@
       <c r="D61" s="8">
         <v>416</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="8">
@@ -55523,7 +55853,10 @@
       <c r="D62" s="8">
         <v>342</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
@@ -55535,7 +55868,10 @@
       <c r="D63" s="8">
         <v>446</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="8">
@@ -55547,7 +55883,10 @@
       <c r="D64" s="8">
         <v>477</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
@@ -55559,7 +55898,10 @@
       <c r="D65" s="8">
         <v>444</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
@@ -55571,7 +55913,10 @@
       <c r="D66" s="8">
         <v>351</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
@@ -55583,7 +55928,10 @@
       <c r="D67" s="8">
         <v>165</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
@@ -55595,7 +55943,10 @@
       <c r="D68" s="8">
         <v>317</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
@@ -55607,7 +55958,10 @@
       <c r="D69" s="8">
         <v>250</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
@@ -55619,7 +55973,10 @@
       <c r="D70" s="8">
         <v>217</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
@@ -55631,7 +55988,10 @@
       <c r="D71" s="8">
         <v>138</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8">
+        <f t="shared" ref="E71:E100" si="1">D71-C71</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
@@ -55643,7 +56003,10 @@
       <c r="D72" s="8">
         <v>302</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="8">
@@ -55655,7 +56018,10 @@
       <c r="D73" s="8">
         <v>311</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="8">
@@ -55667,7 +56033,10 @@
       <c r="D74" s="8">
         <v>373</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="8">
@@ -55679,7 +56048,10 @@
       <c r="D75" s="8">
         <v>196</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="8">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="8">
@@ -55691,7 +56063,10 @@
       <c r="D76" s="8">
         <v>306</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
@@ -55703,7 +56078,10 @@
       <c r="D77" s="8">
         <v>302</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
@@ -55715,7 +56093,10 @@
       <c r="D78" s="8">
         <v>278</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="8">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
@@ -55727,7 +56108,10 @@
       <c r="D79" s="8">
         <v>429</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
@@ -55739,7 +56123,10 @@
       <c r="D80" s="8">
         <v>338</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
@@ -55751,7 +56138,10 @@
       <c r="D81" s="8">
         <v>261</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
@@ -55763,7 +56153,10 @@
       <c r="D82" s="8">
         <v>256</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
@@ -55775,7 +56168,10 @@
       <c r="D83" s="8">
         <v>183</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
@@ -55787,7 +56183,10 @@
       <c r="D84" s="8">
         <v>274</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
@@ -55799,7 +56198,10 @@
       <c r="D85" s="8">
         <v>182</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
@@ -55811,7 +56213,10 @@
       <c r="D86" s="8">
         <v>183</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
@@ -55823,7 +56228,10 @@
       <c r="D87" s="8">
         <v>309</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
@@ -55835,7 +56243,10 @@
       <c r="D88" s="8">
         <v>178</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="8">
@@ -55847,7 +56258,10 @@
       <c r="D89" s="8">
         <v>458</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="8">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="8">
@@ -55859,7 +56273,10 @@
       <c r="D90" s="8">
         <v>234</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="8">
@@ -55871,7 +56288,10 @@
       <c r="D91" s="8">
         <v>306</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="8">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="8">
@@ -55883,7 +56303,10 @@
       <c r="D92" s="8">
         <v>400</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="8">
@@ -55895,7 +56318,10 @@
       <c r="D93" s="8">
         <v>337</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="8">
@@ -55907,7 +56333,10 @@
       <c r="D94" s="8">
         <v>325</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="8">
@@ -55919,7 +56348,10 @@
       <c r="D95" s="8">
         <v>329</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="8">
@@ -55931,7 +56363,10 @@
       <c r="D96" s="8">
         <v>369</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="8">
@@ -55943,7 +56378,10 @@
       <c r="D97" s="8">
         <v>457</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="8">
@@ -55955,7 +56393,10 @@
       <c r="D98" s="8">
         <v>421</v>
       </c>
-      <c r="E98" s="8"/>
+      <c r="E98" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="8">
@@ -55967,7 +56408,10 @@
       <c r="D99" s="8">
         <v>282</v>
       </c>
-      <c r="E99" s="8"/>
+      <c r="E99" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="8">
@@ -55979,7 +56423,10 @@
       <c r="D100" s="8">
         <v>256</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -56009,8 +56456,8 @@
   </sheetPr>
   <dimension ref="B1:Z58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56027,6 +56474,7 @@
     <col min="15" max="15" width="9.1640625" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="57.1640625" customWidth="1"/>
     <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -56061,29 +56509,29 @@
       <c r="C5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="I5" s="114" t="s">
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="I5" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="L5" s="116" t="s">
+      <c r="J5" s="113"/>
+      <c r="L5" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="Q5" s="116" t="s">
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="Q5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="R5" s="116"/>
-      <c r="T5" s="114" t="s">
+      <c r="R5" s="115"/>
+      <c r="T5" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="U5" s="114"/>
+      <c r="U5" s="113"/>
       <c r="W5" s="50" t="s">
         <v>202</v>
       </c>
@@ -56104,25 +56552,40 @@
       <c r="I6" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="80"/>
+      <c r="J6" s="80">
+        <f>F9-G9</f>
+        <v>7744.2810457516316</v>
+      </c>
       <c r="L6" s="20" t="s">
         <v>194</v>
       </c>
       <c r="M6" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="N6" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="119">
+        <v>0</v>
+      </c>
       <c r="Q6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="71"/>
+      <c r="R6" s="71">
+        <f>1-0.99</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
       <c r="T6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="U6" s="80"/>
-      <c r="W6" s="117"/>
-      <c r="Y6" s="95" t="s">
+      <c r="U6" s="80">
+        <f>SQRT(SUM(F11:G11))</f>
+        <v>15739.713009442165</v>
+      </c>
+      <c r="W6" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y6" s="94" t="s">
         <v>197</v>
       </c>
       <c r="Z6" s="92" t="s">
@@ -56139,23 +56602,36 @@
       <c r="E7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="71">
+        <f>COUNTIFS($B$6:$B$58,F6)</f>
+        <v>17</v>
+      </c>
+      <c r="G7" s="71">
+        <f>COUNTIFS($B$6:$B$58,G6)</f>
+        <v>36</v>
+      </c>
       <c r="L7" s="20" t="s">
         <v>195</v>
       </c>
       <c r="M7" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90"/>
+      <c r="N7" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="O7" s="90">
+        <v>0</v>
+      </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="1"/>
       <c r="T7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="U7" s="91"/>
-      <c r="W7" s="117"/>
+      <c r="U7" s="91">
+        <f>(J6-O6)/U6</f>
+        <v>0.49202174404996341</v>
+      </c>
+      <c r="W7" s="116"/>
       <c r="Y7" s="92" t="s">
         <v>310</v>
       </c>
@@ -56173,8 +56649,14 @@
       <c r="E8" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="71">
+        <f>F7-1</f>
+        <v>16</v>
+      </c>
+      <c r="G8" s="71">
+        <f>G7-1</f>
+        <v>35</v>
+      </c>
       <c r="L8" s="20"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -56182,8 +56664,11 @@
       <c r="T8" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="U8" s="75"/>
-      <c r="W8" s="117"/>
+      <c r="U8" s="75">
+        <f>(SUM(F11:G11)^2/SUM(F11^2/F8,G11^2/G8))</f>
+        <v>22.429970730290126</v>
+      </c>
+      <c r="W8" s="116"/>
       <c r="Y8" s="92" t="s">
         <v>208</v>
       </c>
@@ -56201,8 +56686,14 @@
       <c r="E9" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="F9" s="80">
+        <f>AVERAGEIFS($C$6:$C$58,$B$6:$B$58,F6)</f>
+        <v>124647.05882352941</v>
+      </c>
+      <c r="G9" s="80">
+        <f>AVERAGEIFS($C$6:$C$58,$B$6:$B$58,G6)</f>
+        <v>116902.77777777778</v>
+      </c>
       <c r="L9" s="20"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
@@ -56210,8 +56701,11 @@
       <c r="T9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="U9" s="70"/>
-      <c r="W9" s="117"/>
+      <c r="U9" s="70">
+        <f>_xlfn.T.DIST.RT(U7,U8)</f>
+        <v>0.31378889492074447</v>
+      </c>
+      <c r="W9" s="116"/>
     </row>
     <row r="10" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -56223,13 +56717,19 @@
       <c r="E10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="74" cm="1">
+        <f t="array" ref="F10">VAR(IF(B6:$B$58="Yes",$C$6:$C$58))</f>
+        <v>3526773897.0588226</v>
+      </c>
+      <c r="G10" s="74" cm="1">
+        <f t="array" ref="G10">VAR(IF($B6:C$58="No",$C$6:$C$58))</f>
+        <v>1450125992.0634923</v>
+      </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="W10" s="117"/>
+      <c r="W10" s="116"/>
     </row>
     <row r="11" spans="2:26" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -56241,13 +56741,19 @@
       <c r="E11" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="F11" s="74">
+        <f>F10/F7</f>
+        <v>207457288.06228369</v>
+      </c>
+      <c r="G11" s="74">
+        <f>G10/G7</f>
+        <v>40281277.557319231</v>
+      </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="W11" s="117"/>
+      <c r="W11" s="116"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -57493,10 +57999,10 @@
       <c r="C5" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -58757,13 +59263,13 @@
       <c r="F5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -58781,7 +59287,7 @@
       <c r="F6" s="52">
         <v>111000</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -59738,10 +60244,10 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
+      <c r="F5" s="113"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -60564,18 +61070,18 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -60599,7 +61105,7 @@
         <v>234</v>
       </c>
       <c r="L6" s="71"/>
-      <c r="N6" s="99"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -61435,19 +61941,19 @@
       <c r="G5" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="M5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="P5" s="114" t="s">
+      <c r="N5" s="113"/>
+      <c r="P5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -63439,22 +63945,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="113"/>
+      <c r="N5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="114"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -63486,7 +63992,7 @@
       <c r="N6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -63512,7 +64018,7 @@
       <c r="N7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="96"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -64321,22 +64827,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="113"/>
+      <c r="N5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="114"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -64368,7 +64874,7 @@
       <c r="N6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="97" cm="1">
+      <c r="O6" s="96" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
         <v>81929.289620086478</v>
       </c>
@@ -64397,7 +64903,7 @@
       <c r="N7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="97" cm="1">
+      <c r="O7" s="96" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
         <v>822141.5368421051</v>
       </c>
@@ -64427,7 +64933,7 @@
       <c r="N9" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="96"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -65220,22 +65726,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="113"/>
+      <c r="N5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="114"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -65267,7 +65773,7 @@
       <c r="N6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="97" cm="1">
+      <c r="O6" s="96" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
         <v>81929.289620086478</v>
       </c>
@@ -65296,7 +65802,7 @@
       <c r="N7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="97" cm="1">
+      <c r="O7" s="96" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
         <v>822141.5368421051</v>
       </c>
@@ -65326,7 +65832,7 @@
       <c r="N9" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="96">
         <f>O6/(COUNT(C6:C100)-1-1)</f>
         <v>880.96010344179012</v>
       </c>
@@ -66125,22 +66631,22 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="113"/>
+      <c r="N5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="114"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -66172,7 +66678,7 @@
       <c r="N6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="97" cm="1">
+      <c r="O6" s="96" cm="1">
         <f t="array" ref="O6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
         <v>81929.289620086478</v>
       </c>
@@ -66201,7 +66707,7 @@
       <c r="N7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="97" cm="1">
+      <c r="O7" s="96" cm="1">
         <f t="array" ref="O7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
         <v>822141.5368421051</v>
       </c>
@@ -66231,7 +66737,7 @@
       <c r="N9" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="96">
         <f>O6/(COUNT(C6:C100)-1-1)</f>
         <v>880.96010344179012</v>
       </c>
@@ -66273,7 +66779,7 @@
       <c r="N12" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -67047,22 +67553,22 @@
       <c r="C5" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="113"/>
+      <c r="N5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="114"/>
+      <c r="O5" s="113"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -67094,7 +67600,7 @@
       <c r="N6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
@@ -67120,7 +67626,7 @@
       <c r="N7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="96"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
@@ -67146,7 +67652,7 @@
       <c r="N9" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="96"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
@@ -67182,7 +67688,7 @@
       <c r="N12" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
@@ -67954,18 +68460,18 @@
       <c r="C5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="K5" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="K5" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="51">
@@ -67991,7 +68497,7 @@
       <c r="K6" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="L6" s="97" cm="1">
+      <c r="L6" s="96" cm="1">
         <f t="array" ref="L6">SUMSQ(C6:C100-_xlfn.FORECAST.LINEAR(B6:B100,C6:C100,B6:B100))</f>
         <v>81929.289620086478</v>
       </c>
@@ -68013,7 +68519,7 @@
       <c r="K7" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="L7" s="97" cm="1">
+      <c r="L7" s="96" cm="1">
         <f t="array" ref="L7">SUMSQ(C6:C100-AVERAGE(C6:C100))</f>
         <v>822141.5368421051</v>
       </c>
@@ -68043,7 +68549,7 @@
       <c r="K9" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="96">
         <f>L6/(COUNT(C6:C100)-1-1)</f>
         <v>880.96010344179012</v>
       </c>
@@ -68087,7 +68593,7 @@
       <c r="K12" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="L12" s="97">
+      <c r="L12" s="96">
         <f>(L7-L6)/1</f>
         <v>740212.24722201866</v>
       </c>
@@ -68856,13 +69362,13 @@
       <c r="B5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="105" t="s">
         <v>327</v>
       </c>
     </row>
@@ -68870,13 +69376,13 @@
       <c r="B6" s="8">
         <v>90.2</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="101">
         <v>1.0526315789473684E-2</v>
       </c>
     </row>
@@ -68884,13 +69390,13 @@
       <c r="B7" s="8">
         <v>92.8</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>39</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="101">
         <v>4.2105263157894736E-2</v>
       </c>
     </row>
@@ -68898,13 +69404,13 @@
       <c r="B8" s="8">
         <v>68.7</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="100" t="s">
         <v>40</v>
       </c>
       <c r="E8">
         <v>17</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="101">
         <v>0.22105263157894736</v>
       </c>
     </row>
@@ -68912,13 +69418,13 @@
       <c r="B9" s="8">
         <v>80.7</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="100" t="s">
         <v>41</v>
       </c>
       <c r="E9">
         <v>24</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="101">
         <v>0.47368421052631576</v>
       </c>
     </row>
@@ -68926,13 +69432,13 @@
       <c r="B10" s="8">
         <v>74.900000000000006</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="100" t="s">
         <v>42</v>
       </c>
       <c r="E10">
         <v>29</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="101">
         <v>0.77894736842105261</v>
       </c>
     </row>
@@ -68940,13 +69446,13 @@
       <c r="B11" s="8">
         <v>80.7</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="100" t="s">
         <v>43</v>
       </c>
       <c r="E11">
         <v>17</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="101">
         <v>0.95789473684210524</v>
       </c>
     </row>
@@ -68954,13 +69460,13 @@
       <c r="B12" s="8">
         <v>83.3</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="100" t="s">
         <v>44</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="101">
         <v>0.98947368421052628</v>
       </c>
     </row>
@@ -68968,13 +69474,13 @@
       <c r="B13" s="8">
         <v>88.7</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="100" t="s">
         <v>45</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="101">
         <v>1</v>
       </c>
     </row>
@@ -68982,13 +69488,13 @@
       <c r="B14" s="8">
         <v>75.400000000000006</v>
       </c>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E14">
         <v>95</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
@@ -69004,10 +69510,10 @@
       <c r="B17" s="8">
         <v>66.900000000000006</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="106" t="s">
         <v>329</v>
       </c>
     </row>
@@ -69015,7 +69521,7 @@
       <c r="B18" s="8">
         <v>71.3</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="100" t="s">
         <v>38</v>
       </c>
       <c r="E18">
@@ -69026,7 +69532,7 @@
       <c r="B19" s="8">
         <v>76.8</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="100" t="s">
         <v>39</v>
       </c>
       <c r="E19">
@@ -69037,7 +69543,7 @@
       <c r="B20" s="8">
         <v>72.3</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="100" t="s">
         <v>40</v>
       </c>
       <c r="E20">
@@ -69048,7 +69554,7 @@
       <c r="B21" s="8">
         <v>72.400000000000006</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="100" t="s">
         <v>41</v>
       </c>
       <c r="E21">
@@ -69059,7 +69565,7 @@
       <c r="B22" s="8">
         <v>72</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="100" t="s">
         <v>42</v>
       </c>
       <c r="E22">
@@ -69070,7 +69576,7 @@
       <c r="B23" s="8">
         <v>81</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>43</v>
       </c>
       <c r="E23">
@@ -69081,7 +69587,7 @@
       <c r="B24" s="8">
         <v>96.1</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="100" t="s">
         <v>44</v>
       </c>
       <c r="E24">
@@ -69092,7 +69598,7 @@
       <c r="B25" s="8">
         <v>76.7</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="100" t="s">
         <v>45</v>
       </c>
       <c r="E25">
@@ -70622,20 +71128,20 @@
       <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="H5" s="114" t="s">
+      <c r="F5" s="113"/>
+      <c r="H5" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="L5" s="115" t="s">
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="L5" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -71216,10 +71722,10 @@
       <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
@@ -71554,11 +72060,11 @@
       <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
